--- a/Document/조작 시스템 문서_강동민.xlsx
+++ b/Document/조작 시스템 문서_강동민.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="121">
   <si>
     <t xml:space="preserve">작성날짜 </t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -85,10 +85,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Mouse0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Mouse1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -97,327 +93,422 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>MouseWheel Scroll</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ESC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enter</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arrow Up</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arrow Down</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>전진</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>후진</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>오른쪽 이동</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>왼쪽 이동</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>오브젝트 상호작용</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>점프</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>미정</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>달리기</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>일시정지, 메뉴창</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>확인</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴 선택지 위로 이동</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴 선택지 아래로 이동</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 시스템 개요</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>조작법</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 플레이어 캐릭터 이동에 관한 문서</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 이동 속도와 이동에 관한 룰에 관한 설명</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 시스템 룰</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>숙이기</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>명칭</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>속도</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>미정</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>전방으로 이동하는 속도로 전진의 범위는 대각선을 포함한다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>시야</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동경로</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>좌, 우 이동</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>왼쪽, 오른쪽 이동만 해당한다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>카메라</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>전방 이동</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>후방 이동</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>조작키: A</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>조작키: D</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>조작키: W</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>조작키W+A</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>조작키: S</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>조작키: A+S</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 현재 문서는 백뷰를 기준으로 작성 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>조작키</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>마우스</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>마우스를 따라 이동</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>명칭</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>상승속도</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>가속도</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>낙하속도</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>가속도</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>점프</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>미정</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>미정</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>점프 이동 속도</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>가속도</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>가속도</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>미정</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>점프의 속도와 점프후 방향 이동은 자유이동</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>탑뷰예시</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>사이드 뷰 예시</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>조작: Space Bar</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>조작:Spac Bar 후 w누르고 있기</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>위 아래 로만 이동</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>위로 이동하면서 점점 전방으로 전방이동의 x만큼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>가속함</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>조작: Shift+w 누르면서 Space Bar</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>달리는 속도의 가속도를 받으면서 이동</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>달리기</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>전방으로 이동가능한 방향으로 이동중 달리기 버튼을 누른상태</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>미정</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>앉기</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>후방으로 이동하는 속도로 후진 범위는 대각선을 포함한다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>앉은 상태로 전방 이동시 대각선을 포함</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>왼쪽, 오른쪽 이동만 해당</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.03.15</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>강동민</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>앉기 내용 추가</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>상호작용</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 플레이어 캐릭터 상호작용에 관한 문서</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>액션</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>미정</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>Left Alt</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>MouseWheel Scroll</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ESC</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enter</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Arrow Up</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Arrow Down</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>설명</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>전진</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>후진</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>오른쪽 이동</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>왼쪽 이동</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>오브젝트 상호작용</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>점프</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>미정</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>달리기</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>특수키</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>E</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템 사용</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>일시정지, 메뉴창</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>확인</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>메뉴 선택지 위로 이동</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>메뉴 선택지 아래로 이동</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>이동</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 시스템 개요</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>조작법</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 플레이어 캐릭터 이동에 관한 문서</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 이동 속도와 이동에 관한 룰에 관한 설명</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2. 시스템 룰</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>숙이기</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ctrl</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>내용</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>명칭</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>속도</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>미정</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>전방으로 이동하는 속도로 전진의 범위는 대각선을 포함한다</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>시야</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>이동경로</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>좌, 우 이동</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>왼쪽, 오른쪽 이동만 해당한다</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>카메라</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>전방 이동</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>후방 이동</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>조작키: A</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>조작키: D</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>조작키: W</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>조작키W+A</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>조작키: S</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>조작키: A+S</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 시야 각의 변경으로 변경 가능성이 있는 문서</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 현재 문서는 백뷰를 기준으로 작성 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>조작키</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>설명</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>마우스</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>마우스를 따라 이동</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>이 부분은 뷰 변경에 따라 변경될 수 있음</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>명칭</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>상승속도</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>가속도</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>낙하속도</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>가속도</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>점프</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>미정</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>미정</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>점프 이동 속도</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>가속도</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>가속도</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>미정</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>점프의 속도와 점프후 방향 이동은 자유이동</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>탑뷰예시</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>사이드 뷰 예시</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>조작: Space Bar</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>조작:Spac Bar 후 w누르고 있기</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>위 아래 로만 이동</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>위로 이동하면서 점점 전방으로 전방이동의 x만큼</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>가속함</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>조작: Shift+w 누르면서 Space Bar</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>달리는 속도의 가속도를 받으면서 이동</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>달리기</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>전방으로 이동가능한 방향으로 이동중 달리기 버튼을 누른상태</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>미정</t>
+    <t>Left Ctrl</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.03.20</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>조작키 수정</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>v</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 다른 오브젝트와의 상호작용에 관한 룰에 관한 설명</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>오브젝트 인식</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면 상에 가장 가운데로 배치된 오브젝트를 인식합니다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>백뷰 예시:</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A보다는 B가 에임의 가운데에 가깝기 때문에 B가 거리가 멀리있어도 우선 인식</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>백뷰예시:</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B보다 A가 더 에임에 가깝기 때문에 우선 인식</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.03.21</t>
+  </si>
+  <si>
+    <t>강동민</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>상호작용 내용추가</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -425,7 +516,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -510,6 +601,14 @@
     <font>
       <b/>
       <sz val="20"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
@@ -674,7 +773,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -750,6 +849,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="강조색3" xfId="1" builtinId="37"/>
@@ -769,73 +871,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="직사각형 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="676275" y="1809750"/>
-          <a:ext cx="3733800" cy="295275"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:alpha val="82000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            <a:t>토의 필요</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1185,13 +1220,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1343025</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2419350</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1246,13 +1281,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>100013</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1343025</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1295,13 +1330,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1219200</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>158192</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2533650</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>83563</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1357,13 +1392,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2419350</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>3381375</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>100013</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1406,13 +1441,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>814820</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>169718</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>919595</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>198293</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1467,13 +1502,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>381433</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>198293</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1516,13 +1551,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2843645</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>83993</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>3919970</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>112568</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1577,13 +1612,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2457450</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>164494</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>3001269</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1626,13 +1661,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>700520</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>156460</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1043420</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>81831</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1688,13 +1723,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2719820</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>51685</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>4048125</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>186606</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1750,13 +1785,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>838200</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>971550</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1811,13 +1846,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>433388</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1860,13 +1895,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>2562225</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1921,13 +1956,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>799314</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>82778</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>2162178</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>139928</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1983,13 +2018,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>580239</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>25628</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>571503</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>44678</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2045,13 +2080,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2092,13 +2127,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>14288</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2141,13 +2176,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1657350</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>2733675</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2202,13 +2237,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>2590014</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>235178</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>352428</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>168503</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2264,13 +2299,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>2733675</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>138113</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>157624</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>138574</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2313,13 +2348,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>138113</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1657350</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2356,6 +2391,1729 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6569</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>315310</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>6570</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="사다리꼴 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="624052" y="4368362"/>
+          <a:ext cx="6168258" cy="2529053"/>
+        </a:xfrm>
+        <a:prstGeom prst="trapezoid">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 114675"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2534852</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>146479</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>353159</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>6742</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="평행 사변형 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="4616725">
+          <a:off x="3648788" y="3611112"/>
+          <a:ext cx="3972436" cy="3020927"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 2419350"/>
+            <a:gd name="connsiteY0" fmla="*/ 2552700 h 2552700"/>
+            <a:gd name="connsiteX1" fmla="*/ 604838 w 2419350"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 2552700"/>
+            <a:gd name="connsiteX2" fmla="*/ 2419350 w 2419350"/>
+            <a:gd name="connsiteY2" fmla="*/ 0 h 2552700"/>
+            <a:gd name="connsiteX3" fmla="*/ 1814513 w 2419350"/>
+            <a:gd name="connsiteY3" fmla="*/ 2552700 h 2552700"/>
+            <a:gd name="connsiteX4" fmla="*/ 0 w 2419350"/>
+            <a:gd name="connsiteY4" fmla="*/ 2552700 h 2552700"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 2872933"/>
+            <a:gd name="connsiteY0" fmla="*/ 2779969 h 2779969"/>
+            <a:gd name="connsiteX1" fmla="*/ 1058421 w 2872933"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 2779969"/>
+            <a:gd name="connsiteX2" fmla="*/ 2872933 w 2872933"/>
+            <a:gd name="connsiteY2" fmla="*/ 0 h 2779969"/>
+            <a:gd name="connsiteX3" fmla="*/ 2268096 w 2872933"/>
+            <a:gd name="connsiteY3" fmla="*/ 2552700 h 2779969"/>
+            <a:gd name="connsiteX4" fmla="*/ 0 w 2872933"/>
+            <a:gd name="connsiteY4" fmla="*/ 2779969 h 2779969"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 3133054"/>
+            <a:gd name="connsiteY0" fmla="*/ 2779969 h 3545253"/>
+            <a:gd name="connsiteX1" fmla="*/ 1058421 w 3133054"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 3545253"/>
+            <a:gd name="connsiteX2" fmla="*/ 2872933 w 3133054"/>
+            <a:gd name="connsiteY2" fmla="*/ 0 h 3545253"/>
+            <a:gd name="connsiteX3" fmla="*/ 3133054 w 3133054"/>
+            <a:gd name="connsiteY3" fmla="*/ 3545253 h 3545253"/>
+            <a:gd name="connsiteX4" fmla="*/ 0 w 3133054"/>
+            <a:gd name="connsiteY4" fmla="*/ 2779969 h 3545253"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 3133054"/>
+            <a:gd name="connsiteY0" fmla="*/ 2779969 h 3545253"/>
+            <a:gd name="connsiteX1" fmla="*/ 355797 w 3133054"/>
+            <a:gd name="connsiteY1" fmla="*/ 795296 h 3545253"/>
+            <a:gd name="connsiteX2" fmla="*/ 2872933 w 3133054"/>
+            <a:gd name="connsiteY2" fmla="*/ 0 h 3545253"/>
+            <a:gd name="connsiteX3" fmla="*/ 3133054 w 3133054"/>
+            <a:gd name="connsiteY3" fmla="*/ 3545253 h 3545253"/>
+            <a:gd name="connsiteX4" fmla="*/ 0 w 3133054"/>
+            <a:gd name="connsiteY4" fmla="*/ 2779969 h 3545253"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 3133054"/>
+            <a:gd name="connsiteY0" fmla="*/ 1984673 h 2749957"/>
+            <a:gd name="connsiteX1" fmla="*/ 355797 w 3133054"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 2749957"/>
+            <a:gd name="connsiteX2" fmla="*/ 1824441 w 3133054"/>
+            <a:gd name="connsiteY2" fmla="*/ 310910 h 2749957"/>
+            <a:gd name="connsiteX3" fmla="*/ 3133054 w 3133054"/>
+            <a:gd name="connsiteY3" fmla="*/ 2749957 h 2749957"/>
+            <a:gd name="connsiteX4" fmla="*/ 0 w 3133054"/>
+            <a:gd name="connsiteY4" fmla="*/ 1984673 h 2749957"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 3133054"/>
+            <a:gd name="connsiteY0" fmla="*/ 1984673 h 2749957"/>
+            <a:gd name="connsiteX1" fmla="*/ 355797 w 3133054"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 2749957"/>
+            <a:gd name="connsiteX2" fmla="*/ 1785847 w 3133054"/>
+            <a:gd name="connsiteY2" fmla="*/ 350849 h 2749957"/>
+            <a:gd name="connsiteX3" fmla="*/ 3133054 w 3133054"/>
+            <a:gd name="connsiteY3" fmla="*/ 2749957 h 2749957"/>
+            <a:gd name="connsiteX4" fmla="*/ 0 w 3133054"/>
+            <a:gd name="connsiteY4" fmla="*/ 1984673 h 2749957"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 3145307"/>
+            <a:gd name="connsiteY0" fmla="*/ 2008795 h 2749957"/>
+            <a:gd name="connsiteX1" fmla="*/ 368050 w 3145307"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 2749957"/>
+            <a:gd name="connsiteX2" fmla="*/ 1798100 w 3145307"/>
+            <a:gd name="connsiteY2" fmla="*/ 350849 h 2749957"/>
+            <a:gd name="connsiteX3" fmla="*/ 3145307 w 3145307"/>
+            <a:gd name="connsiteY3" fmla="*/ 2749957 h 2749957"/>
+            <a:gd name="connsiteX4" fmla="*/ 0 w 3145307"/>
+            <a:gd name="connsiteY4" fmla="*/ 2008795 h 2749957"/>
+            <a:gd name="connsiteX0" fmla="*/ 325582 w 2777257"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 4073458"/>
+            <a:gd name="connsiteX1" fmla="*/ 0 w 2777257"/>
+            <a:gd name="connsiteY1" fmla="*/ 1323501 h 4073458"/>
+            <a:gd name="connsiteX2" fmla="*/ 1430050 w 2777257"/>
+            <a:gd name="connsiteY2" fmla="*/ 1674350 h 4073458"/>
+            <a:gd name="connsiteX3" fmla="*/ 2777257 w 2777257"/>
+            <a:gd name="connsiteY3" fmla="*/ 4073458 h 4073458"/>
+            <a:gd name="connsiteX4" fmla="*/ 325582 w 2777257"/>
+            <a:gd name="connsiteY4" fmla="*/ 0 h 4073458"/>
+            <a:gd name="connsiteX0" fmla="*/ 325582 w 3636177"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 1674350"/>
+            <a:gd name="connsiteX1" fmla="*/ 0 w 3636177"/>
+            <a:gd name="connsiteY1" fmla="*/ 1323501 h 1674350"/>
+            <a:gd name="connsiteX2" fmla="*/ 1430050 w 3636177"/>
+            <a:gd name="connsiteY2" fmla="*/ 1674350 h 1674350"/>
+            <a:gd name="connsiteX3" fmla="*/ 3636177 w 3636177"/>
+            <a:gd name="connsiteY3" fmla="*/ 779753 h 1674350"/>
+            <a:gd name="connsiteX4" fmla="*/ 325582 w 3636177"/>
+            <a:gd name="connsiteY4" fmla="*/ 0 h 1674350"/>
+            <a:gd name="connsiteX0" fmla="*/ 325582 w 3636177"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 2567498"/>
+            <a:gd name="connsiteX1" fmla="*/ 0 w 3636177"/>
+            <a:gd name="connsiteY1" fmla="*/ 1323501 h 2567498"/>
+            <a:gd name="connsiteX2" fmla="*/ 1123902 w 3636177"/>
+            <a:gd name="connsiteY2" fmla="*/ 2567498 h 2567498"/>
+            <a:gd name="connsiteX3" fmla="*/ 3636177 w 3636177"/>
+            <a:gd name="connsiteY3" fmla="*/ 779753 h 2567498"/>
+            <a:gd name="connsiteX4" fmla="*/ 325582 w 3636177"/>
+            <a:gd name="connsiteY4" fmla="*/ 0 h 2567498"/>
+            <a:gd name="connsiteX0" fmla="*/ 531027 w 3841622"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 2567498"/>
+            <a:gd name="connsiteX1" fmla="*/ 0 w 3841622"/>
+            <a:gd name="connsiteY1" fmla="*/ 2273889 h 2567498"/>
+            <a:gd name="connsiteX2" fmla="*/ 1329347 w 3841622"/>
+            <a:gd name="connsiteY2" fmla="*/ 2567498 h 2567498"/>
+            <a:gd name="connsiteX3" fmla="*/ 3841622 w 3841622"/>
+            <a:gd name="connsiteY3" fmla="*/ 779753 h 2567498"/>
+            <a:gd name="connsiteX4" fmla="*/ 531027 w 3841622"/>
+            <a:gd name="connsiteY4" fmla="*/ 0 h 2567498"/>
+            <a:gd name="connsiteX0" fmla="*/ 531027 w 3841622"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 2583362"/>
+            <a:gd name="connsiteX1" fmla="*/ 0 w 3841622"/>
+            <a:gd name="connsiteY1" fmla="*/ 2273889 h 2583362"/>
+            <a:gd name="connsiteX2" fmla="*/ 1426179 w 3841622"/>
+            <a:gd name="connsiteY2" fmla="*/ 2583362 h 2583362"/>
+            <a:gd name="connsiteX3" fmla="*/ 3841622 w 3841622"/>
+            <a:gd name="connsiteY3" fmla="*/ 779753 h 2583362"/>
+            <a:gd name="connsiteX4" fmla="*/ 531027 w 3841622"/>
+            <a:gd name="connsiteY4" fmla="*/ 0 h 2583362"/>
+            <a:gd name="connsiteX0" fmla="*/ 531027 w 3841622"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 3022010"/>
+            <a:gd name="connsiteX1" fmla="*/ 0 w 3841622"/>
+            <a:gd name="connsiteY1" fmla="*/ 2273889 h 3022010"/>
+            <a:gd name="connsiteX2" fmla="*/ 762457 w 3841622"/>
+            <a:gd name="connsiteY2" fmla="*/ 3022010 h 3022010"/>
+            <a:gd name="connsiteX3" fmla="*/ 3841622 w 3841622"/>
+            <a:gd name="connsiteY3" fmla="*/ 779753 h 3022010"/>
+            <a:gd name="connsiteX4" fmla="*/ 531027 w 3841622"/>
+            <a:gd name="connsiteY4" fmla="*/ 0 h 3022010"/>
+            <a:gd name="connsiteX0" fmla="*/ 635776 w 3946371"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 3022010"/>
+            <a:gd name="connsiteX1" fmla="*/ 0 w 3946371"/>
+            <a:gd name="connsiteY1" fmla="*/ 2816068 h 3022010"/>
+            <a:gd name="connsiteX2" fmla="*/ 867206 w 3946371"/>
+            <a:gd name="connsiteY2" fmla="*/ 3022010 h 3022010"/>
+            <a:gd name="connsiteX3" fmla="*/ 3946371 w 3946371"/>
+            <a:gd name="connsiteY3" fmla="*/ 779753 h 3022010"/>
+            <a:gd name="connsiteX4" fmla="*/ 635776 w 3946371"/>
+            <a:gd name="connsiteY4" fmla="*/ 0 h 3022010"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX4" y="connsiteY4"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="3946371" h="3022010">
+              <a:moveTo>
+                <a:pt x="635776" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="2816068"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="867206" y="3022010"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="3946371" y="779753"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="635776" y="0"/>
+              </a:lnTo>
+              <a:close/>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>201910</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>314536</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2209872</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>350607</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="평행 사변형 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="4616725">
+          <a:off x="386441" y="3118884"/>
+          <a:ext cx="3228589" cy="3597652"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 2419350"/>
+            <a:gd name="connsiteY0" fmla="*/ 2552700 h 2552700"/>
+            <a:gd name="connsiteX1" fmla="*/ 604838 w 2419350"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 2552700"/>
+            <a:gd name="connsiteX2" fmla="*/ 2419350 w 2419350"/>
+            <a:gd name="connsiteY2" fmla="*/ 0 h 2552700"/>
+            <a:gd name="connsiteX3" fmla="*/ 1814513 w 2419350"/>
+            <a:gd name="connsiteY3" fmla="*/ 2552700 h 2552700"/>
+            <a:gd name="connsiteX4" fmla="*/ 0 w 2419350"/>
+            <a:gd name="connsiteY4" fmla="*/ 2552700 h 2552700"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 2872933"/>
+            <a:gd name="connsiteY0" fmla="*/ 2779969 h 2779969"/>
+            <a:gd name="connsiteX1" fmla="*/ 1058421 w 2872933"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 2779969"/>
+            <a:gd name="connsiteX2" fmla="*/ 2872933 w 2872933"/>
+            <a:gd name="connsiteY2" fmla="*/ 0 h 2779969"/>
+            <a:gd name="connsiteX3" fmla="*/ 2268096 w 2872933"/>
+            <a:gd name="connsiteY3" fmla="*/ 2552700 h 2779969"/>
+            <a:gd name="connsiteX4" fmla="*/ 0 w 2872933"/>
+            <a:gd name="connsiteY4" fmla="*/ 2779969 h 2779969"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 3133054"/>
+            <a:gd name="connsiteY0" fmla="*/ 2779969 h 3545253"/>
+            <a:gd name="connsiteX1" fmla="*/ 1058421 w 3133054"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 3545253"/>
+            <a:gd name="connsiteX2" fmla="*/ 2872933 w 3133054"/>
+            <a:gd name="connsiteY2" fmla="*/ 0 h 3545253"/>
+            <a:gd name="connsiteX3" fmla="*/ 3133054 w 3133054"/>
+            <a:gd name="connsiteY3" fmla="*/ 3545253 h 3545253"/>
+            <a:gd name="connsiteX4" fmla="*/ 0 w 3133054"/>
+            <a:gd name="connsiteY4" fmla="*/ 2779969 h 3545253"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 3133054"/>
+            <a:gd name="connsiteY0" fmla="*/ 2779969 h 3545253"/>
+            <a:gd name="connsiteX1" fmla="*/ 355797 w 3133054"/>
+            <a:gd name="connsiteY1" fmla="*/ 795296 h 3545253"/>
+            <a:gd name="connsiteX2" fmla="*/ 2872933 w 3133054"/>
+            <a:gd name="connsiteY2" fmla="*/ 0 h 3545253"/>
+            <a:gd name="connsiteX3" fmla="*/ 3133054 w 3133054"/>
+            <a:gd name="connsiteY3" fmla="*/ 3545253 h 3545253"/>
+            <a:gd name="connsiteX4" fmla="*/ 0 w 3133054"/>
+            <a:gd name="connsiteY4" fmla="*/ 2779969 h 3545253"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 3133054"/>
+            <a:gd name="connsiteY0" fmla="*/ 1984673 h 2749957"/>
+            <a:gd name="connsiteX1" fmla="*/ 355797 w 3133054"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 2749957"/>
+            <a:gd name="connsiteX2" fmla="*/ 1824441 w 3133054"/>
+            <a:gd name="connsiteY2" fmla="*/ 310910 h 2749957"/>
+            <a:gd name="connsiteX3" fmla="*/ 3133054 w 3133054"/>
+            <a:gd name="connsiteY3" fmla="*/ 2749957 h 2749957"/>
+            <a:gd name="connsiteX4" fmla="*/ 0 w 3133054"/>
+            <a:gd name="connsiteY4" fmla="*/ 1984673 h 2749957"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 3133054"/>
+            <a:gd name="connsiteY0" fmla="*/ 1984673 h 2749957"/>
+            <a:gd name="connsiteX1" fmla="*/ 355797 w 3133054"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 2749957"/>
+            <a:gd name="connsiteX2" fmla="*/ 1785847 w 3133054"/>
+            <a:gd name="connsiteY2" fmla="*/ 350849 h 2749957"/>
+            <a:gd name="connsiteX3" fmla="*/ 3133054 w 3133054"/>
+            <a:gd name="connsiteY3" fmla="*/ 2749957 h 2749957"/>
+            <a:gd name="connsiteX4" fmla="*/ 0 w 3133054"/>
+            <a:gd name="connsiteY4" fmla="*/ 1984673 h 2749957"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 3145307"/>
+            <a:gd name="connsiteY0" fmla="*/ 2008795 h 2749957"/>
+            <a:gd name="connsiteX1" fmla="*/ 368050 w 3145307"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 2749957"/>
+            <a:gd name="connsiteX2" fmla="*/ 1798100 w 3145307"/>
+            <a:gd name="connsiteY2" fmla="*/ 350849 h 2749957"/>
+            <a:gd name="connsiteX3" fmla="*/ 3145307 w 3145307"/>
+            <a:gd name="connsiteY3" fmla="*/ 2749957 h 2749957"/>
+            <a:gd name="connsiteX4" fmla="*/ 0 w 3145307"/>
+            <a:gd name="connsiteY4" fmla="*/ 2008795 h 2749957"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 3169262"/>
+            <a:gd name="connsiteY0" fmla="*/ 2008795 h 2762296"/>
+            <a:gd name="connsiteX1" fmla="*/ 368050 w 3169262"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 2762296"/>
+            <a:gd name="connsiteX2" fmla="*/ 1798100 w 3169262"/>
+            <a:gd name="connsiteY2" fmla="*/ 350849 h 2762296"/>
+            <a:gd name="connsiteX3" fmla="*/ 3169262 w 3169262"/>
+            <a:gd name="connsiteY3" fmla="*/ 2762296 h 2762296"/>
+            <a:gd name="connsiteX4" fmla="*/ 0 w 3169262"/>
+            <a:gd name="connsiteY4" fmla="*/ 2008795 h 2762296"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 3169262"/>
+            <a:gd name="connsiteY0" fmla="*/ 2648406 h 3401907"/>
+            <a:gd name="connsiteX1" fmla="*/ 368050 w 3169262"/>
+            <a:gd name="connsiteY1" fmla="*/ 639611 h 3401907"/>
+            <a:gd name="connsiteX2" fmla="*/ 1369669 w 3169262"/>
+            <a:gd name="connsiteY2" fmla="*/ 0 h 3401907"/>
+            <a:gd name="connsiteX3" fmla="*/ 3169262 w 3169262"/>
+            <a:gd name="connsiteY3" fmla="*/ 3401907 h 3401907"/>
+            <a:gd name="connsiteX4" fmla="*/ 0 w 3169262"/>
+            <a:gd name="connsiteY4" fmla="*/ 2648406 h 3401907"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 3169262"/>
+            <a:gd name="connsiteY0" fmla="*/ 2845440 h 3598941"/>
+            <a:gd name="connsiteX1" fmla="*/ 540606 w 3169262"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 3598941"/>
+            <a:gd name="connsiteX2" fmla="*/ 1369669 w 3169262"/>
+            <a:gd name="connsiteY2" fmla="*/ 197034 h 3598941"/>
+            <a:gd name="connsiteX3" fmla="*/ 3169262 w 3169262"/>
+            <a:gd name="connsiteY3" fmla="*/ 3598941 h 3598941"/>
+            <a:gd name="connsiteX4" fmla="*/ 0 w 3169262"/>
+            <a:gd name="connsiteY4" fmla="*/ 2845440 h 3598941"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 3226477"/>
+            <a:gd name="connsiteY0" fmla="*/ 2832081 h 3598941"/>
+            <a:gd name="connsiteX1" fmla="*/ 597821 w 3226477"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 3598941"/>
+            <a:gd name="connsiteX2" fmla="*/ 1426884 w 3226477"/>
+            <a:gd name="connsiteY2" fmla="*/ 197034 h 3598941"/>
+            <a:gd name="connsiteX3" fmla="*/ 3226477 w 3226477"/>
+            <a:gd name="connsiteY3" fmla="*/ 3598941 h 3598941"/>
+            <a:gd name="connsiteX4" fmla="*/ 0 w 3226477"/>
+            <a:gd name="connsiteY4" fmla="*/ 2832081 h 3598941"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 3207405"/>
+            <a:gd name="connsiteY0" fmla="*/ 2836534 h 3598941"/>
+            <a:gd name="connsiteX1" fmla="*/ 578749 w 3207405"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 3598941"/>
+            <a:gd name="connsiteX2" fmla="*/ 1407812 w 3207405"/>
+            <a:gd name="connsiteY2" fmla="*/ 197034 h 3598941"/>
+            <a:gd name="connsiteX3" fmla="*/ 3207405 w 3207405"/>
+            <a:gd name="connsiteY3" fmla="*/ 3598941 h 3598941"/>
+            <a:gd name="connsiteX4" fmla="*/ 0 w 3207405"/>
+            <a:gd name="connsiteY4" fmla="*/ 2836534 h 3598941"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX4" y="connsiteY4"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="3207405" h="3598941">
+              <a:moveTo>
+                <a:pt x="0" y="2836534"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="578749" y="0"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1407812" y="197034"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="3207405" y="3598941"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="2836534"/>
+              </a:lnTo>
+              <a:close/>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1024758</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>124810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1543708</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>262758</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="순서도: 자기 디스크 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2614448" y="4177862"/>
+          <a:ext cx="518950" cy="1202120"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>A</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1224455</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>295605</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3093983</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>239112</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="11" name="그룹 10"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2814716" y="3608648"/>
+          <a:ext cx="1869528" cy="1724268"/>
+          <a:chOff x="2735317" y="4033346"/>
+          <a:chExt cx="1869528" cy="1717128"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="원호 6"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3218792" y="4033346"/>
+            <a:ext cx="1386053" cy="1386052"/>
+          </a:xfrm>
+          <a:prstGeom prst="arc">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent2"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="원호 7"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="5400000">
+            <a:off x="3213537" y="4356540"/>
+            <a:ext cx="1386053" cy="1386052"/>
+          </a:xfrm>
+          <a:prstGeom prst="arc">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent2"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="원호 8"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="10800000">
+            <a:off x="2735317" y="4364422"/>
+            <a:ext cx="1386053" cy="1386052"/>
+          </a:xfrm>
+          <a:prstGeom prst="arc">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent2"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="원호 9"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="16200000">
+            <a:off x="2736632" y="4037287"/>
+            <a:ext cx="1386053" cy="1386052"/>
+          </a:xfrm>
+          <a:prstGeom prst="arc">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent2"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1767051</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>124810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2102068</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>91965</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="정육면체 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3356741" y="4177862"/>
+          <a:ext cx="335017" cy="321879"/>
+        </a:xfrm>
+        <a:prstGeom prst="cube">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>B</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>14452</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>316624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>270641</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>7884</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="사다리꼴 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6806762" y="4369676"/>
+          <a:ext cx="6168258" cy="2529053"/>
+        </a:xfrm>
+        <a:prstGeom prst="trapezoid">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 114675"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1885838</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>147793</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>623800</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>8056</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="평행 사변형 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="4616725">
+          <a:off x="9831498" y="3612426"/>
+          <a:ext cx="3972436" cy="3020927"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 2419350"/>
+            <a:gd name="connsiteY0" fmla="*/ 2552700 h 2552700"/>
+            <a:gd name="connsiteX1" fmla="*/ 604838 w 2419350"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 2552700"/>
+            <a:gd name="connsiteX2" fmla="*/ 2419350 w 2419350"/>
+            <a:gd name="connsiteY2" fmla="*/ 0 h 2552700"/>
+            <a:gd name="connsiteX3" fmla="*/ 1814513 w 2419350"/>
+            <a:gd name="connsiteY3" fmla="*/ 2552700 h 2552700"/>
+            <a:gd name="connsiteX4" fmla="*/ 0 w 2419350"/>
+            <a:gd name="connsiteY4" fmla="*/ 2552700 h 2552700"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 2872933"/>
+            <a:gd name="connsiteY0" fmla="*/ 2779969 h 2779969"/>
+            <a:gd name="connsiteX1" fmla="*/ 1058421 w 2872933"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 2779969"/>
+            <a:gd name="connsiteX2" fmla="*/ 2872933 w 2872933"/>
+            <a:gd name="connsiteY2" fmla="*/ 0 h 2779969"/>
+            <a:gd name="connsiteX3" fmla="*/ 2268096 w 2872933"/>
+            <a:gd name="connsiteY3" fmla="*/ 2552700 h 2779969"/>
+            <a:gd name="connsiteX4" fmla="*/ 0 w 2872933"/>
+            <a:gd name="connsiteY4" fmla="*/ 2779969 h 2779969"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 3133054"/>
+            <a:gd name="connsiteY0" fmla="*/ 2779969 h 3545253"/>
+            <a:gd name="connsiteX1" fmla="*/ 1058421 w 3133054"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 3545253"/>
+            <a:gd name="connsiteX2" fmla="*/ 2872933 w 3133054"/>
+            <a:gd name="connsiteY2" fmla="*/ 0 h 3545253"/>
+            <a:gd name="connsiteX3" fmla="*/ 3133054 w 3133054"/>
+            <a:gd name="connsiteY3" fmla="*/ 3545253 h 3545253"/>
+            <a:gd name="connsiteX4" fmla="*/ 0 w 3133054"/>
+            <a:gd name="connsiteY4" fmla="*/ 2779969 h 3545253"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 3133054"/>
+            <a:gd name="connsiteY0" fmla="*/ 2779969 h 3545253"/>
+            <a:gd name="connsiteX1" fmla="*/ 355797 w 3133054"/>
+            <a:gd name="connsiteY1" fmla="*/ 795296 h 3545253"/>
+            <a:gd name="connsiteX2" fmla="*/ 2872933 w 3133054"/>
+            <a:gd name="connsiteY2" fmla="*/ 0 h 3545253"/>
+            <a:gd name="connsiteX3" fmla="*/ 3133054 w 3133054"/>
+            <a:gd name="connsiteY3" fmla="*/ 3545253 h 3545253"/>
+            <a:gd name="connsiteX4" fmla="*/ 0 w 3133054"/>
+            <a:gd name="connsiteY4" fmla="*/ 2779969 h 3545253"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 3133054"/>
+            <a:gd name="connsiteY0" fmla="*/ 1984673 h 2749957"/>
+            <a:gd name="connsiteX1" fmla="*/ 355797 w 3133054"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 2749957"/>
+            <a:gd name="connsiteX2" fmla="*/ 1824441 w 3133054"/>
+            <a:gd name="connsiteY2" fmla="*/ 310910 h 2749957"/>
+            <a:gd name="connsiteX3" fmla="*/ 3133054 w 3133054"/>
+            <a:gd name="connsiteY3" fmla="*/ 2749957 h 2749957"/>
+            <a:gd name="connsiteX4" fmla="*/ 0 w 3133054"/>
+            <a:gd name="connsiteY4" fmla="*/ 1984673 h 2749957"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 3133054"/>
+            <a:gd name="connsiteY0" fmla="*/ 1984673 h 2749957"/>
+            <a:gd name="connsiteX1" fmla="*/ 355797 w 3133054"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 2749957"/>
+            <a:gd name="connsiteX2" fmla="*/ 1785847 w 3133054"/>
+            <a:gd name="connsiteY2" fmla="*/ 350849 h 2749957"/>
+            <a:gd name="connsiteX3" fmla="*/ 3133054 w 3133054"/>
+            <a:gd name="connsiteY3" fmla="*/ 2749957 h 2749957"/>
+            <a:gd name="connsiteX4" fmla="*/ 0 w 3133054"/>
+            <a:gd name="connsiteY4" fmla="*/ 1984673 h 2749957"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 3145307"/>
+            <a:gd name="connsiteY0" fmla="*/ 2008795 h 2749957"/>
+            <a:gd name="connsiteX1" fmla="*/ 368050 w 3145307"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 2749957"/>
+            <a:gd name="connsiteX2" fmla="*/ 1798100 w 3145307"/>
+            <a:gd name="connsiteY2" fmla="*/ 350849 h 2749957"/>
+            <a:gd name="connsiteX3" fmla="*/ 3145307 w 3145307"/>
+            <a:gd name="connsiteY3" fmla="*/ 2749957 h 2749957"/>
+            <a:gd name="connsiteX4" fmla="*/ 0 w 3145307"/>
+            <a:gd name="connsiteY4" fmla="*/ 2008795 h 2749957"/>
+            <a:gd name="connsiteX0" fmla="*/ 325582 w 2777257"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 4073458"/>
+            <a:gd name="connsiteX1" fmla="*/ 0 w 2777257"/>
+            <a:gd name="connsiteY1" fmla="*/ 1323501 h 4073458"/>
+            <a:gd name="connsiteX2" fmla="*/ 1430050 w 2777257"/>
+            <a:gd name="connsiteY2" fmla="*/ 1674350 h 4073458"/>
+            <a:gd name="connsiteX3" fmla="*/ 2777257 w 2777257"/>
+            <a:gd name="connsiteY3" fmla="*/ 4073458 h 4073458"/>
+            <a:gd name="connsiteX4" fmla="*/ 325582 w 2777257"/>
+            <a:gd name="connsiteY4" fmla="*/ 0 h 4073458"/>
+            <a:gd name="connsiteX0" fmla="*/ 325582 w 3636177"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 1674350"/>
+            <a:gd name="connsiteX1" fmla="*/ 0 w 3636177"/>
+            <a:gd name="connsiteY1" fmla="*/ 1323501 h 1674350"/>
+            <a:gd name="connsiteX2" fmla="*/ 1430050 w 3636177"/>
+            <a:gd name="connsiteY2" fmla="*/ 1674350 h 1674350"/>
+            <a:gd name="connsiteX3" fmla="*/ 3636177 w 3636177"/>
+            <a:gd name="connsiteY3" fmla="*/ 779753 h 1674350"/>
+            <a:gd name="connsiteX4" fmla="*/ 325582 w 3636177"/>
+            <a:gd name="connsiteY4" fmla="*/ 0 h 1674350"/>
+            <a:gd name="connsiteX0" fmla="*/ 325582 w 3636177"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 2567498"/>
+            <a:gd name="connsiteX1" fmla="*/ 0 w 3636177"/>
+            <a:gd name="connsiteY1" fmla="*/ 1323501 h 2567498"/>
+            <a:gd name="connsiteX2" fmla="*/ 1123902 w 3636177"/>
+            <a:gd name="connsiteY2" fmla="*/ 2567498 h 2567498"/>
+            <a:gd name="connsiteX3" fmla="*/ 3636177 w 3636177"/>
+            <a:gd name="connsiteY3" fmla="*/ 779753 h 2567498"/>
+            <a:gd name="connsiteX4" fmla="*/ 325582 w 3636177"/>
+            <a:gd name="connsiteY4" fmla="*/ 0 h 2567498"/>
+            <a:gd name="connsiteX0" fmla="*/ 531027 w 3841622"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 2567498"/>
+            <a:gd name="connsiteX1" fmla="*/ 0 w 3841622"/>
+            <a:gd name="connsiteY1" fmla="*/ 2273889 h 2567498"/>
+            <a:gd name="connsiteX2" fmla="*/ 1329347 w 3841622"/>
+            <a:gd name="connsiteY2" fmla="*/ 2567498 h 2567498"/>
+            <a:gd name="connsiteX3" fmla="*/ 3841622 w 3841622"/>
+            <a:gd name="connsiteY3" fmla="*/ 779753 h 2567498"/>
+            <a:gd name="connsiteX4" fmla="*/ 531027 w 3841622"/>
+            <a:gd name="connsiteY4" fmla="*/ 0 h 2567498"/>
+            <a:gd name="connsiteX0" fmla="*/ 531027 w 3841622"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 2583362"/>
+            <a:gd name="connsiteX1" fmla="*/ 0 w 3841622"/>
+            <a:gd name="connsiteY1" fmla="*/ 2273889 h 2583362"/>
+            <a:gd name="connsiteX2" fmla="*/ 1426179 w 3841622"/>
+            <a:gd name="connsiteY2" fmla="*/ 2583362 h 2583362"/>
+            <a:gd name="connsiteX3" fmla="*/ 3841622 w 3841622"/>
+            <a:gd name="connsiteY3" fmla="*/ 779753 h 2583362"/>
+            <a:gd name="connsiteX4" fmla="*/ 531027 w 3841622"/>
+            <a:gd name="connsiteY4" fmla="*/ 0 h 2583362"/>
+            <a:gd name="connsiteX0" fmla="*/ 531027 w 3841622"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 3022010"/>
+            <a:gd name="connsiteX1" fmla="*/ 0 w 3841622"/>
+            <a:gd name="connsiteY1" fmla="*/ 2273889 h 3022010"/>
+            <a:gd name="connsiteX2" fmla="*/ 762457 w 3841622"/>
+            <a:gd name="connsiteY2" fmla="*/ 3022010 h 3022010"/>
+            <a:gd name="connsiteX3" fmla="*/ 3841622 w 3841622"/>
+            <a:gd name="connsiteY3" fmla="*/ 779753 h 3022010"/>
+            <a:gd name="connsiteX4" fmla="*/ 531027 w 3841622"/>
+            <a:gd name="connsiteY4" fmla="*/ 0 h 3022010"/>
+            <a:gd name="connsiteX0" fmla="*/ 635776 w 3946371"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 3022010"/>
+            <a:gd name="connsiteX1" fmla="*/ 0 w 3946371"/>
+            <a:gd name="connsiteY1" fmla="*/ 2816068 h 3022010"/>
+            <a:gd name="connsiteX2" fmla="*/ 867206 w 3946371"/>
+            <a:gd name="connsiteY2" fmla="*/ 3022010 h 3022010"/>
+            <a:gd name="connsiteX3" fmla="*/ 3946371 w 3946371"/>
+            <a:gd name="connsiteY3" fmla="*/ 779753 h 3022010"/>
+            <a:gd name="connsiteX4" fmla="*/ 635776 w 3946371"/>
+            <a:gd name="connsiteY4" fmla="*/ 0 h 3022010"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX4" y="connsiteY4"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="3946371" h="3022010">
+              <a:moveTo>
+                <a:pt x="635776" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="2816068"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="867206" y="3022010"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="3946371" y="779753"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="635776" y="0"/>
+              </a:lnTo>
+              <a:close/>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>314896</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>315850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1560858</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>351921</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="평행 사변형 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="4616725">
+          <a:off x="6569151" y="3120198"/>
+          <a:ext cx="3228589" cy="3597652"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 2419350"/>
+            <a:gd name="connsiteY0" fmla="*/ 2552700 h 2552700"/>
+            <a:gd name="connsiteX1" fmla="*/ 604838 w 2419350"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 2552700"/>
+            <a:gd name="connsiteX2" fmla="*/ 2419350 w 2419350"/>
+            <a:gd name="connsiteY2" fmla="*/ 0 h 2552700"/>
+            <a:gd name="connsiteX3" fmla="*/ 1814513 w 2419350"/>
+            <a:gd name="connsiteY3" fmla="*/ 2552700 h 2552700"/>
+            <a:gd name="connsiteX4" fmla="*/ 0 w 2419350"/>
+            <a:gd name="connsiteY4" fmla="*/ 2552700 h 2552700"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 2872933"/>
+            <a:gd name="connsiteY0" fmla="*/ 2779969 h 2779969"/>
+            <a:gd name="connsiteX1" fmla="*/ 1058421 w 2872933"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 2779969"/>
+            <a:gd name="connsiteX2" fmla="*/ 2872933 w 2872933"/>
+            <a:gd name="connsiteY2" fmla="*/ 0 h 2779969"/>
+            <a:gd name="connsiteX3" fmla="*/ 2268096 w 2872933"/>
+            <a:gd name="connsiteY3" fmla="*/ 2552700 h 2779969"/>
+            <a:gd name="connsiteX4" fmla="*/ 0 w 2872933"/>
+            <a:gd name="connsiteY4" fmla="*/ 2779969 h 2779969"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 3133054"/>
+            <a:gd name="connsiteY0" fmla="*/ 2779969 h 3545253"/>
+            <a:gd name="connsiteX1" fmla="*/ 1058421 w 3133054"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 3545253"/>
+            <a:gd name="connsiteX2" fmla="*/ 2872933 w 3133054"/>
+            <a:gd name="connsiteY2" fmla="*/ 0 h 3545253"/>
+            <a:gd name="connsiteX3" fmla="*/ 3133054 w 3133054"/>
+            <a:gd name="connsiteY3" fmla="*/ 3545253 h 3545253"/>
+            <a:gd name="connsiteX4" fmla="*/ 0 w 3133054"/>
+            <a:gd name="connsiteY4" fmla="*/ 2779969 h 3545253"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 3133054"/>
+            <a:gd name="connsiteY0" fmla="*/ 2779969 h 3545253"/>
+            <a:gd name="connsiteX1" fmla="*/ 355797 w 3133054"/>
+            <a:gd name="connsiteY1" fmla="*/ 795296 h 3545253"/>
+            <a:gd name="connsiteX2" fmla="*/ 2872933 w 3133054"/>
+            <a:gd name="connsiteY2" fmla="*/ 0 h 3545253"/>
+            <a:gd name="connsiteX3" fmla="*/ 3133054 w 3133054"/>
+            <a:gd name="connsiteY3" fmla="*/ 3545253 h 3545253"/>
+            <a:gd name="connsiteX4" fmla="*/ 0 w 3133054"/>
+            <a:gd name="connsiteY4" fmla="*/ 2779969 h 3545253"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 3133054"/>
+            <a:gd name="connsiteY0" fmla="*/ 1984673 h 2749957"/>
+            <a:gd name="connsiteX1" fmla="*/ 355797 w 3133054"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 2749957"/>
+            <a:gd name="connsiteX2" fmla="*/ 1824441 w 3133054"/>
+            <a:gd name="connsiteY2" fmla="*/ 310910 h 2749957"/>
+            <a:gd name="connsiteX3" fmla="*/ 3133054 w 3133054"/>
+            <a:gd name="connsiteY3" fmla="*/ 2749957 h 2749957"/>
+            <a:gd name="connsiteX4" fmla="*/ 0 w 3133054"/>
+            <a:gd name="connsiteY4" fmla="*/ 1984673 h 2749957"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 3133054"/>
+            <a:gd name="connsiteY0" fmla="*/ 1984673 h 2749957"/>
+            <a:gd name="connsiteX1" fmla="*/ 355797 w 3133054"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 2749957"/>
+            <a:gd name="connsiteX2" fmla="*/ 1785847 w 3133054"/>
+            <a:gd name="connsiteY2" fmla="*/ 350849 h 2749957"/>
+            <a:gd name="connsiteX3" fmla="*/ 3133054 w 3133054"/>
+            <a:gd name="connsiteY3" fmla="*/ 2749957 h 2749957"/>
+            <a:gd name="connsiteX4" fmla="*/ 0 w 3133054"/>
+            <a:gd name="connsiteY4" fmla="*/ 1984673 h 2749957"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 3145307"/>
+            <a:gd name="connsiteY0" fmla="*/ 2008795 h 2749957"/>
+            <a:gd name="connsiteX1" fmla="*/ 368050 w 3145307"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 2749957"/>
+            <a:gd name="connsiteX2" fmla="*/ 1798100 w 3145307"/>
+            <a:gd name="connsiteY2" fmla="*/ 350849 h 2749957"/>
+            <a:gd name="connsiteX3" fmla="*/ 3145307 w 3145307"/>
+            <a:gd name="connsiteY3" fmla="*/ 2749957 h 2749957"/>
+            <a:gd name="connsiteX4" fmla="*/ 0 w 3145307"/>
+            <a:gd name="connsiteY4" fmla="*/ 2008795 h 2749957"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 3169262"/>
+            <a:gd name="connsiteY0" fmla="*/ 2008795 h 2762296"/>
+            <a:gd name="connsiteX1" fmla="*/ 368050 w 3169262"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 2762296"/>
+            <a:gd name="connsiteX2" fmla="*/ 1798100 w 3169262"/>
+            <a:gd name="connsiteY2" fmla="*/ 350849 h 2762296"/>
+            <a:gd name="connsiteX3" fmla="*/ 3169262 w 3169262"/>
+            <a:gd name="connsiteY3" fmla="*/ 2762296 h 2762296"/>
+            <a:gd name="connsiteX4" fmla="*/ 0 w 3169262"/>
+            <a:gd name="connsiteY4" fmla="*/ 2008795 h 2762296"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 3169262"/>
+            <a:gd name="connsiteY0" fmla="*/ 2648406 h 3401907"/>
+            <a:gd name="connsiteX1" fmla="*/ 368050 w 3169262"/>
+            <a:gd name="connsiteY1" fmla="*/ 639611 h 3401907"/>
+            <a:gd name="connsiteX2" fmla="*/ 1369669 w 3169262"/>
+            <a:gd name="connsiteY2" fmla="*/ 0 h 3401907"/>
+            <a:gd name="connsiteX3" fmla="*/ 3169262 w 3169262"/>
+            <a:gd name="connsiteY3" fmla="*/ 3401907 h 3401907"/>
+            <a:gd name="connsiteX4" fmla="*/ 0 w 3169262"/>
+            <a:gd name="connsiteY4" fmla="*/ 2648406 h 3401907"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 3169262"/>
+            <a:gd name="connsiteY0" fmla="*/ 2845440 h 3598941"/>
+            <a:gd name="connsiteX1" fmla="*/ 540606 w 3169262"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 3598941"/>
+            <a:gd name="connsiteX2" fmla="*/ 1369669 w 3169262"/>
+            <a:gd name="connsiteY2" fmla="*/ 197034 h 3598941"/>
+            <a:gd name="connsiteX3" fmla="*/ 3169262 w 3169262"/>
+            <a:gd name="connsiteY3" fmla="*/ 3598941 h 3598941"/>
+            <a:gd name="connsiteX4" fmla="*/ 0 w 3169262"/>
+            <a:gd name="connsiteY4" fmla="*/ 2845440 h 3598941"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 3226477"/>
+            <a:gd name="connsiteY0" fmla="*/ 2832081 h 3598941"/>
+            <a:gd name="connsiteX1" fmla="*/ 597821 w 3226477"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 3598941"/>
+            <a:gd name="connsiteX2" fmla="*/ 1426884 w 3226477"/>
+            <a:gd name="connsiteY2" fmla="*/ 197034 h 3598941"/>
+            <a:gd name="connsiteX3" fmla="*/ 3226477 w 3226477"/>
+            <a:gd name="connsiteY3" fmla="*/ 3598941 h 3598941"/>
+            <a:gd name="connsiteX4" fmla="*/ 0 w 3226477"/>
+            <a:gd name="connsiteY4" fmla="*/ 2832081 h 3598941"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 3207405"/>
+            <a:gd name="connsiteY0" fmla="*/ 2836534 h 3598941"/>
+            <a:gd name="connsiteX1" fmla="*/ 578749 w 3207405"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 3598941"/>
+            <a:gd name="connsiteX2" fmla="*/ 1407812 w 3207405"/>
+            <a:gd name="connsiteY2" fmla="*/ 197034 h 3598941"/>
+            <a:gd name="connsiteX3" fmla="*/ 3207405 w 3207405"/>
+            <a:gd name="connsiteY3" fmla="*/ 3598941 h 3598941"/>
+            <a:gd name="connsiteX4" fmla="*/ 0 w 3207405"/>
+            <a:gd name="connsiteY4" fmla="*/ 2836534 h 3598941"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX4" y="connsiteY4"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="3207405" h="3598941">
+              <a:moveTo>
+                <a:pt x="0" y="2836534"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="578749" y="0"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1407812" y="197034"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="3207405" y="3598941"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="2836534"/>
+              </a:lnTo>
+              <a:close/>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>375744</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>126124</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>894694</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>264072</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="순서도: 자기 디스크 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8797158" y="4179176"/>
+          <a:ext cx="518950" cy="1202120"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>A</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>851337</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>158970</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1774934</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>102478</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="18" name="그룹 17"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="8330533" y="3828166"/>
+          <a:ext cx="1867814" cy="1724269"/>
+          <a:chOff x="2735317" y="4033346"/>
+          <a:chExt cx="1869528" cy="1717128"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="19" name="원호 18"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3218792" y="4033346"/>
+            <a:ext cx="1386053" cy="1386052"/>
+          </a:xfrm>
+          <a:prstGeom prst="arc">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent2"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="20" name="원호 19"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="5400000">
+            <a:off x="3213537" y="4356540"/>
+            <a:ext cx="1386053" cy="1386052"/>
+          </a:xfrm>
+          <a:prstGeom prst="arc">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent2"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="21" name="원호 20"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="10800000">
+            <a:off x="2735317" y="4364422"/>
+            <a:ext cx="1386053" cy="1386052"/>
+          </a:xfrm>
+          <a:prstGeom prst="arc">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent2"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="22" name="원호 21"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="16200000">
+            <a:off x="2736632" y="4037287"/>
+            <a:ext cx="1386053" cy="1386052"/>
+          </a:xfrm>
+          <a:prstGeom prst="arc">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent2"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1118037</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>126124</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1453054</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>93279</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="정육면체 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9539451" y="4179176"/>
+          <a:ext cx="335017" cy="321879"/>
+        </a:xfrm>
+        <a:prstGeom prst="cube">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>B</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2626,8 +4384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E8"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E8"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2665,21 +4423,39 @@
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>120</v>
+      </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
@@ -2702,10 +4478,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F22"/>
+  <dimension ref="B2:F24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2719,21 +4495,19 @@
   <sheetData>
     <row r="2" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="22" t="s">
-        <v>72</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="E2" s="22"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F3" s="21"/>
     </row>
@@ -2742,13 +4516,13 @@
         <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
@@ -2756,13 +4530,13 @@
         <v>9</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
@@ -2770,139 +4544,149 @@
         <v>10</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>72</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="E6" s="21"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>28</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
-        <v>34</v>
+        <v>99</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>35</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>30</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="C12" s="3"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
-        <v>15</v>
+        <v>106</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>31</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>33</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="3"/>
+        <v>15</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
+      <c r="B17" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" s="3"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="3"/>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B19" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B20" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>37</v>
-      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B21" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B22" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>39</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B23" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B24" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L58"/>
+  <dimension ref="B2:L60"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I52" sqref="I52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2915,135 +4699,153 @@
     <col min="7" max="7" width="12.375" customWidth="1"/>
     <col min="8" max="8" width="38.25" customWidth="1"/>
     <col min="12" max="12" width="15.25" customWidth="1"/>
+    <col min="15" max="15" width="54.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="31.5" x14ac:dyDescent="0.3">
       <c r="B2" s="24" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4" s="23" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="2:12" ht="10.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B10" s="23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="J12" s="8" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B11" s="23" t="s">
+      <c r="K12" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B13" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="J13" s="8" t="s">
+      <c r="D13" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H13" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="K13" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="L13" s="8" t="s">
-        <v>81</v>
+      <c r="I13" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="L14" s="4" t="s">
-        <v>31</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G14" s="9"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="11"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="G15" s="9"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="11"/>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="13"/>
+    </row>
+    <row r="16" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="9"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="11"/>
-      <c r="G16" s="16" t="s">
-        <v>87</v>
+      <c r="G16" s="14" t="s">
+        <v>46</v>
       </c>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
@@ -3051,15 +4853,15 @@
       <c r="K16" s="5"/>
       <c r="L16" s="13"/>
     </row>
-    <row r="17" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:12" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B17" s="12" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="13"/>
-      <c r="G17" s="14" t="s">
-        <v>53</v>
+      <c r="G17" s="15" t="s">
+        <v>47</v>
       </c>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
@@ -3069,14 +4871,12 @@
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="13"/>
-      <c r="G18" s="15" t="s">
-        <v>54</v>
-      </c>
+      <c r="G18" s="16"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
@@ -3085,7 +4885,7 @@
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B19" s="15" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -3159,16 +4959,20 @@
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B25" s="16" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E25" s="13"/>
-      <c r="G25" s="16"/>
+      <c r="G25" s="16" t="s">
+        <v>79</v>
+      </c>
       <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
+      <c r="I25" s="5" t="s">
+        <v>80</v>
+      </c>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
       <c r="L25" s="13"/>
@@ -3179,11 +4983,11 @@
       <c r="D26" s="5"/>
       <c r="E26" s="13"/>
       <c r="G26" s="16" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="H26" s="5"/>
       <c r="I26" s="5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
@@ -3194,12 +4998,10 @@
       <c r="C27" s="18"/>
       <c r="D27" s="18"/>
       <c r="E27" s="19"/>
-      <c r="G27" s="16" t="s">
-        <v>90</v>
-      </c>
+      <c r="G27" s="16"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
@@ -3207,74 +5009,78 @@
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B28" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="G28" s="16"/>
       <c r="H28" s="5"/>
-      <c r="I28" s="5" t="s">
-        <v>92</v>
-      </c>
+      <c r="I28" s="5"/>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
       <c r="L28" s="13"/>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B29" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G29" s="16"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="13"/>
+        <v>28</v>
+      </c>
+      <c r="G29" s="17"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="19"/>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B30" s="9"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="11"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="18"/>
-      <c r="L30" s="19"/>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B31" s="16"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="13"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="11"/>
-    </row>
-    <row r="32" spans="2:12" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B32" s="12" t="s">
-        <v>86</v>
-      </c>
+      <c r="B30" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G30" s="9"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="11"/>
+    </row>
+    <row r="31" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="9"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="11"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="13"/>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B32" s="16"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="13"/>
@@ -3285,9 +5091,9 @@
       <c r="K32" s="5"/>
       <c r="L32" s="13"/>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B33" s="14" t="s">
-        <v>53</v>
+    <row r="33" spans="2:12" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="B33" s="12" t="s">
+        <v>77</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
@@ -3300,8 +5106,8 @@
       <c r="L33" s="13"/>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B34" s="15" t="s">
-        <v>54</v>
+      <c r="B34" s="14" t="s">
+        <v>46</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
@@ -3314,7 +5120,9 @@
       <c r="L34" s="13"/>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B35" s="16"/>
+      <c r="B35" s="15" t="s">
+        <v>47</v>
+      </c>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="13"/>
@@ -3374,13 +5182,9 @@
       <c r="L39" s="13"/>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B40" s="16" t="s">
-        <v>60</v>
-      </c>
+      <c r="B40" s="16"/>
       <c r="C40" s="5"/>
-      <c r="D40" s="5" t="s">
-        <v>61</v>
-      </c>
+      <c r="D40" s="5"/>
       <c r="E40" s="13"/>
       <c r="G40" s="16"/>
       <c r="H40" s="5"/>
@@ -3390,10 +5194,14 @@
       <c r="L40" s="13"/>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B41" s="17"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="19"/>
+      <c r="B41" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E41" s="13"/>
       <c r="G41" s="16"/>
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
@@ -3402,19 +5210,13 @@
       <c r="L41" s="13"/>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B42" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="G42" s="16"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="19"/>
+      <c r="G42" s="16" t="s">
+        <v>84</v>
+      </c>
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
       <c r="J42" s="5"/>
@@ -3422,20 +5224,20 @@
       <c r="L42" s="13"/>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B43" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>84</v>
+      <c r="B43" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>74</v>
       </c>
       <c r="G43" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
@@ -3444,63 +5246,71 @@
       <c r="L43" s="13"/>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B44" s="9"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="11"/>
-      <c r="G44" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
-      <c r="K44" s="5"/>
-      <c r="L44" s="13"/>
+      <c r="B44" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G44" s="17"/>
+      <c r="H44" s="18"/>
+      <c r="I44" s="18"/>
+      <c r="J44" s="18"/>
+      <c r="K44" s="18"/>
+      <c r="L44" s="19"/>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B45" s="16"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="13"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="18"/>
-      <c r="I45" s="18"/>
-      <c r="J45" s="18"/>
-      <c r="K45" s="18"/>
-      <c r="L45" s="19"/>
-    </row>
-    <row r="46" spans="2:12" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B46" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="13"/>
+      <c r="B45" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B46" s="9"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="11"/>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B47" s="14" t="s">
-        <v>53</v>
-      </c>
+      <c r="B47" s="16"/>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
       <c r="E47" s="13"/>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B48" s="15" t="s">
-        <v>54</v>
+    <row r="48" spans="2:12" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="B48" s="12" t="s">
+        <v>77</v>
       </c>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
       <c r="E48" s="13"/>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B49" s="16"/>
+      <c r="B49" s="14" t="s">
+        <v>46</v>
+      </c>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
       <c r="E49" s="13"/>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B50" s="16"/>
+      <c r="B50" s="15" t="s">
+        <v>47</v>
+      </c>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
       <c r="E50" s="13"/>
@@ -3536,13 +5346,9 @@
       <c r="E55" s="13"/>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B56" s="16" t="s">
-        <v>64</v>
-      </c>
+      <c r="B56" s="16"/>
       <c r="C56" s="5"/>
-      <c r="D56" s="5" t="s">
-        <v>65</v>
-      </c>
+      <c r="D56" s="5"/>
       <c r="E56" s="13"/>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.3">
@@ -3552,10 +5358,26 @@
       <c r="E57" s="13"/>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B58" s="17"/>
-      <c r="C58" s="18"/>
-      <c r="D58" s="18"/>
-      <c r="E58" s="19"/>
+      <c r="B58" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E58" s="13"/>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B59" s="16"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="13"/>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B60" s="17"/>
+      <c r="C60" s="18"/>
+      <c r="D60" s="18"/>
+      <c r="E60" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -3566,198 +5388,208 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:J24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="8.125" customWidth="1"/>
+    <col min="2" max="2" width="12.75" customWidth="1"/>
+    <col min="3" max="3" width="58.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" customWidth="1"/>
+    <col min="6" max="6" width="12.375" customWidth="1"/>
+    <col min="7" max="7" width="38.25" customWidth="1"/>
+    <col min="11" max="11" width="15.25" customWidth="1"/>
+    <col min="14" max="14" width="54.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10" ht="31.5" x14ac:dyDescent="0.3">
+      <c r="B2" s="24" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B4" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="10.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B10" s="23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D14" s="13"/>
+      <c r="E14" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="11"/>
+    </row>
+    <row r="15" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="15"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="13"/>
+    </row>
+    <row r="16" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="15"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="13"/>
+    </row>
+    <row r="17" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="16"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="13"/>
+    </row>
+    <row r="18" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="16"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="13"/>
+    </row>
+    <row r="19" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="16"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="13"/>
+    </row>
+    <row r="20" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="16"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="13"/>
+    </row>
+    <row r="21" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="16"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="13"/>
+    </row>
+    <row r="22" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="16"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="13"/>
+    </row>
+    <row r="23" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="16"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="13"/>
+    </row>
+    <row r="24" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="17"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="19"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x010100F643F22955DFBC4D9DD3A7624601EBD1" ma:contentTypeVersion="6" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="0a3e87a620d9dfab8666112917a1e9a4">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8050024c-c185-454c-b2be-1c9e4408ac71" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8bedd63959bada6aad395817f67cc735" ns2:_="">
-    <xsd:import namespace="8050024c-c185-454c-b2be-1c9e4408ac71"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="8050024c-c185-454c-b2be-1c9e4408ac71" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="11" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="12" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceLocation" ma:index="13" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="콘텐츠 형식"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="제목"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4BDAC5EF-290B-4AEB-B71E-A3E33EFC8CB5}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0516E8D9-1983-4340-B5FC-C5EEC2E35B3B}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77DED20F-ABC6-4E7B-9CA9-FEF263FB7F67}"/>
 </file>
--- a/Document/조작 시스템 문서_강동민.xlsx
+++ b/Document/조작 시스템 문서_강동민.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="123">
   <si>
     <t xml:space="preserve">작성날짜 </t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -145,63 +145,235 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>일시정지, 메뉴창</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>확인</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴 선택지 위로 이동</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴 선택지 아래로 이동</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 시스템 개요</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>조작법</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 플레이어 캐릭터 이동에 관한 문서</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 이동 속도와 이동에 관한 룰에 관한 설명</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 시스템 룰</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>숙이기</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>명칭</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>속도</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>미정</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>전방으로 이동하는 속도로 전진의 범위는 대각선을 포함한다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>시야</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동경로</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>좌, 우 이동</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>왼쪽, 오른쪽 이동만 해당한다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>카메라</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>전방 이동</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>후방 이동</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>조작키: A</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>조작키: D</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>조작키: W</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>조작키W+A</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>조작키: S</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>조작키: A+S</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 현재 문서는 백뷰를 기준으로 작성 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>조작키</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>마우스</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>마우스를 따라 이동</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>명칭</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>상승속도</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>가속도</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>낙하속도</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>가속도</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>점프</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>미정</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>미정</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>점프 이동 속도</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>가속도</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>가속도</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>미정</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>점프의 속도와 점프후 방향 이동은 자유이동</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>탑뷰예시</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>사이드 뷰 예시</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>조작: Space Bar</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>조작:Spac Bar 후 w누르고 있기</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>위 아래 로만 이동</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>위로 이동하면서 점점 전방으로 전방이동의 x만큼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>가속함</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>조작: Shift+w 누르면서 Space Bar</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>달리는 속도의 가속도를 받으면서 이동</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>달리기</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>일시정지, 메뉴창</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>확인</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>메뉴 선택지 위로 이동</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>메뉴 선택지 아래로 이동</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>이동</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 시스템 개요</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>조작법</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 플레이어 캐릭터 이동에 관한 문서</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 이동 속도와 이동에 관한 룰에 관한 설명</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2. 시스템 룰</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>숙이기</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>내용</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>명칭</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>속도</t>
+    <t>전방으로 이동가능한 방향으로 이동중 달리기 버튼을 누른상태</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -209,103 +381,63 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>전방으로 이동하는 속도로 전진의 범위는 대각선을 포함한다</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>시야</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>이동경로</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>좌, 우 이동</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>왼쪽, 오른쪽 이동만 해당한다</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>카메라</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>전방 이동</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>후방 이동</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>조작키: A</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>조작키: D</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>조작키: W</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>조작키W+A</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>조작키: S</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>조작키: A+S</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 현재 문서는 백뷰를 기준으로 작성 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>조작키</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>설명</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>마우스</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>마우스를 따라 이동</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>명칭</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>상승속도</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>가속도</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>낙하속도</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>가속도</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>점프</t>
+    <t>앉기</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>후방으로 이동하는 속도로 후진 범위는 대각선을 포함한다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>앉은 상태로 전방 이동시 대각선을 포함</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>왼쪽, 오른쪽 이동만 해당</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.03.15</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>강동민</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>앉기 내용 추가</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>상호작용</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 플레이어 캐릭터 상호작용에 관한 문서</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>액션</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -313,202 +445,78 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>미정</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>점프 이동 속도</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>가속도</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>가속도</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>미정</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>점프의 속도와 점프후 방향 이동은 자유이동</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>탑뷰예시</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>사이드 뷰 예시</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>조작: Space Bar</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>조작:Spac Bar 후 w누르고 있기</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>위 아래 로만 이동</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>위로 이동하면서 점점 전방으로 전방이동의 x만큼</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>가속함</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>조작: Shift+w 누르면서 Space Bar</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>달리는 속도의 가속도를 받으면서 이동</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>달리기</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>전방으로 이동가능한 방향으로 이동중 달리기 버튼을 누른상태</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>미정</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>앉기</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>후방으로 이동하는 속도로 후진 범위는 대각선을 포함한다</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>앉은 상태로 전방 이동시 대각선을 포함</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>왼쪽, 오른쪽 이동만 해당</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019.03.15</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>Left Alt</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Left Ctrl</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.03.20</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>조작키 수정</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>v</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 다른 오브젝트와의 상호작용에 관한 룰에 관한 설명</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>오브젝트 인식</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.03.21</t>
   </si>
   <si>
     <t>강동민</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>앉기 내용 추가</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>상호작용</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 플레이어 캐릭터 상호작용에 관한 문서</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Q</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>E</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>액션</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>미정</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Left Alt</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Left Ctrl</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019.03.20</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>조작키 수정</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>v</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 다른 오브젝트와의 상호작용에 관한 룰에 관한 설명</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>오브젝트 인식</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>비고</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>화면 상에 가장 가운데로 배치된 오브젝트를 인식합니다</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>백뷰 예시:</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>A보다는 B가 에임의 가운데에 가깝기 때문에 B가 거리가 멀리있어도 우선 인식</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>백뷰예시:</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>B보다 A가 더 에임에 가깝기 때문에 우선 인식</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019.03.21</t>
-  </si>
-  <si>
-    <t>강동민</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>상호작용 내용추가</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>대쉬</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 인식범위와 가장 가까이 있는 대상을 대상으로 지정합니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>인식범위</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>인식선</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>예시: B오브젝트를 인식</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.03.28</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>상호작용 내용수정</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2400,31 +2408,29 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>6569</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2579205</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>315310</xdr:rowOff>
+      <xdr:rowOff>19878</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>6570</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3382618</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>86139</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="사다리꼴 5"/>
+        <xdr:cNvPr id="25" name="직사각형 24"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="624052" y="4368362"/>
-          <a:ext cx="6168258" cy="2529053"/>
+          <a:off x="4169466" y="4045226"/>
+          <a:ext cx="803413" cy="778565"/>
         </a:xfrm>
-        <a:prstGeom prst="trapezoid">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 114675"/>
-          </a:avLst>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
@@ -2444,11 +2450,15 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1600"/>
+            <a:t>B</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1600"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2457,220 +2467,29 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2534852</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>146479</xdr:rowOff>
+      <xdr:colOff>1167848</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>57978</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>353159</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>6742</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1971261</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>124239</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="평행 사변형 3"/>
+        <xdr:cNvPr id="24" name="직사각형 23"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm rot="4616725">
-          <a:off x="3648788" y="3611112"/>
-          <a:ext cx="3972436" cy="3020927"/>
+        <a:xfrm>
+          <a:off x="2758109" y="3727174"/>
+          <a:ext cx="803413" cy="778565"/>
         </a:xfrm>
-        <a:custGeom>
+        <a:prstGeom prst="rect">
           <a:avLst/>
-          <a:gdLst>
-            <a:gd name="connsiteX0" fmla="*/ 0 w 2419350"/>
-            <a:gd name="connsiteY0" fmla="*/ 2552700 h 2552700"/>
-            <a:gd name="connsiteX1" fmla="*/ 604838 w 2419350"/>
-            <a:gd name="connsiteY1" fmla="*/ 0 h 2552700"/>
-            <a:gd name="connsiteX2" fmla="*/ 2419350 w 2419350"/>
-            <a:gd name="connsiteY2" fmla="*/ 0 h 2552700"/>
-            <a:gd name="connsiteX3" fmla="*/ 1814513 w 2419350"/>
-            <a:gd name="connsiteY3" fmla="*/ 2552700 h 2552700"/>
-            <a:gd name="connsiteX4" fmla="*/ 0 w 2419350"/>
-            <a:gd name="connsiteY4" fmla="*/ 2552700 h 2552700"/>
-            <a:gd name="connsiteX0" fmla="*/ 0 w 2872933"/>
-            <a:gd name="connsiteY0" fmla="*/ 2779969 h 2779969"/>
-            <a:gd name="connsiteX1" fmla="*/ 1058421 w 2872933"/>
-            <a:gd name="connsiteY1" fmla="*/ 0 h 2779969"/>
-            <a:gd name="connsiteX2" fmla="*/ 2872933 w 2872933"/>
-            <a:gd name="connsiteY2" fmla="*/ 0 h 2779969"/>
-            <a:gd name="connsiteX3" fmla="*/ 2268096 w 2872933"/>
-            <a:gd name="connsiteY3" fmla="*/ 2552700 h 2779969"/>
-            <a:gd name="connsiteX4" fmla="*/ 0 w 2872933"/>
-            <a:gd name="connsiteY4" fmla="*/ 2779969 h 2779969"/>
-            <a:gd name="connsiteX0" fmla="*/ 0 w 3133054"/>
-            <a:gd name="connsiteY0" fmla="*/ 2779969 h 3545253"/>
-            <a:gd name="connsiteX1" fmla="*/ 1058421 w 3133054"/>
-            <a:gd name="connsiteY1" fmla="*/ 0 h 3545253"/>
-            <a:gd name="connsiteX2" fmla="*/ 2872933 w 3133054"/>
-            <a:gd name="connsiteY2" fmla="*/ 0 h 3545253"/>
-            <a:gd name="connsiteX3" fmla="*/ 3133054 w 3133054"/>
-            <a:gd name="connsiteY3" fmla="*/ 3545253 h 3545253"/>
-            <a:gd name="connsiteX4" fmla="*/ 0 w 3133054"/>
-            <a:gd name="connsiteY4" fmla="*/ 2779969 h 3545253"/>
-            <a:gd name="connsiteX0" fmla="*/ 0 w 3133054"/>
-            <a:gd name="connsiteY0" fmla="*/ 2779969 h 3545253"/>
-            <a:gd name="connsiteX1" fmla="*/ 355797 w 3133054"/>
-            <a:gd name="connsiteY1" fmla="*/ 795296 h 3545253"/>
-            <a:gd name="connsiteX2" fmla="*/ 2872933 w 3133054"/>
-            <a:gd name="connsiteY2" fmla="*/ 0 h 3545253"/>
-            <a:gd name="connsiteX3" fmla="*/ 3133054 w 3133054"/>
-            <a:gd name="connsiteY3" fmla="*/ 3545253 h 3545253"/>
-            <a:gd name="connsiteX4" fmla="*/ 0 w 3133054"/>
-            <a:gd name="connsiteY4" fmla="*/ 2779969 h 3545253"/>
-            <a:gd name="connsiteX0" fmla="*/ 0 w 3133054"/>
-            <a:gd name="connsiteY0" fmla="*/ 1984673 h 2749957"/>
-            <a:gd name="connsiteX1" fmla="*/ 355797 w 3133054"/>
-            <a:gd name="connsiteY1" fmla="*/ 0 h 2749957"/>
-            <a:gd name="connsiteX2" fmla="*/ 1824441 w 3133054"/>
-            <a:gd name="connsiteY2" fmla="*/ 310910 h 2749957"/>
-            <a:gd name="connsiteX3" fmla="*/ 3133054 w 3133054"/>
-            <a:gd name="connsiteY3" fmla="*/ 2749957 h 2749957"/>
-            <a:gd name="connsiteX4" fmla="*/ 0 w 3133054"/>
-            <a:gd name="connsiteY4" fmla="*/ 1984673 h 2749957"/>
-            <a:gd name="connsiteX0" fmla="*/ 0 w 3133054"/>
-            <a:gd name="connsiteY0" fmla="*/ 1984673 h 2749957"/>
-            <a:gd name="connsiteX1" fmla="*/ 355797 w 3133054"/>
-            <a:gd name="connsiteY1" fmla="*/ 0 h 2749957"/>
-            <a:gd name="connsiteX2" fmla="*/ 1785847 w 3133054"/>
-            <a:gd name="connsiteY2" fmla="*/ 350849 h 2749957"/>
-            <a:gd name="connsiteX3" fmla="*/ 3133054 w 3133054"/>
-            <a:gd name="connsiteY3" fmla="*/ 2749957 h 2749957"/>
-            <a:gd name="connsiteX4" fmla="*/ 0 w 3133054"/>
-            <a:gd name="connsiteY4" fmla="*/ 1984673 h 2749957"/>
-            <a:gd name="connsiteX0" fmla="*/ 0 w 3145307"/>
-            <a:gd name="connsiteY0" fmla="*/ 2008795 h 2749957"/>
-            <a:gd name="connsiteX1" fmla="*/ 368050 w 3145307"/>
-            <a:gd name="connsiteY1" fmla="*/ 0 h 2749957"/>
-            <a:gd name="connsiteX2" fmla="*/ 1798100 w 3145307"/>
-            <a:gd name="connsiteY2" fmla="*/ 350849 h 2749957"/>
-            <a:gd name="connsiteX3" fmla="*/ 3145307 w 3145307"/>
-            <a:gd name="connsiteY3" fmla="*/ 2749957 h 2749957"/>
-            <a:gd name="connsiteX4" fmla="*/ 0 w 3145307"/>
-            <a:gd name="connsiteY4" fmla="*/ 2008795 h 2749957"/>
-            <a:gd name="connsiteX0" fmla="*/ 325582 w 2777257"/>
-            <a:gd name="connsiteY0" fmla="*/ 0 h 4073458"/>
-            <a:gd name="connsiteX1" fmla="*/ 0 w 2777257"/>
-            <a:gd name="connsiteY1" fmla="*/ 1323501 h 4073458"/>
-            <a:gd name="connsiteX2" fmla="*/ 1430050 w 2777257"/>
-            <a:gd name="connsiteY2" fmla="*/ 1674350 h 4073458"/>
-            <a:gd name="connsiteX3" fmla="*/ 2777257 w 2777257"/>
-            <a:gd name="connsiteY3" fmla="*/ 4073458 h 4073458"/>
-            <a:gd name="connsiteX4" fmla="*/ 325582 w 2777257"/>
-            <a:gd name="connsiteY4" fmla="*/ 0 h 4073458"/>
-            <a:gd name="connsiteX0" fmla="*/ 325582 w 3636177"/>
-            <a:gd name="connsiteY0" fmla="*/ 0 h 1674350"/>
-            <a:gd name="connsiteX1" fmla="*/ 0 w 3636177"/>
-            <a:gd name="connsiteY1" fmla="*/ 1323501 h 1674350"/>
-            <a:gd name="connsiteX2" fmla="*/ 1430050 w 3636177"/>
-            <a:gd name="connsiteY2" fmla="*/ 1674350 h 1674350"/>
-            <a:gd name="connsiteX3" fmla="*/ 3636177 w 3636177"/>
-            <a:gd name="connsiteY3" fmla="*/ 779753 h 1674350"/>
-            <a:gd name="connsiteX4" fmla="*/ 325582 w 3636177"/>
-            <a:gd name="connsiteY4" fmla="*/ 0 h 1674350"/>
-            <a:gd name="connsiteX0" fmla="*/ 325582 w 3636177"/>
-            <a:gd name="connsiteY0" fmla="*/ 0 h 2567498"/>
-            <a:gd name="connsiteX1" fmla="*/ 0 w 3636177"/>
-            <a:gd name="connsiteY1" fmla="*/ 1323501 h 2567498"/>
-            <a:gd name="connsiteX2" fmla="*/ 1123902 w 3636177"/>
-            <a:gd name="connsiteY2" fmla="*/ 2567498 h 2567498"/>
-            <a:gd name="connsiteX3" fmla="*/ 3636177 w 3636177"/>
-            <a:gd name="connsiteY3" fmla="*/ 779753 h 2567498"/>
-            <a:gd name="connsiteX4" fmla="*/ 325582 w 3636177"/>
-            <a:gd name="connsiteY4" fmla="*/ 0 h 2567498"/>
-            <a:gd name="connsiteX0" fmla="*/ 531027 w 3841622"/>
-            <a:gd name="connsiteY0" fmla="*/ 0 h 2567498"/>
-            <a:gd name="connsiteX1" fmla="*/ 0 w 3841622"/>
-            <a:gd name="connsiteY1" fmla="*/ 2273889 h 2567498"/>
-            <a:gd name="connsiteX2" fmla="*/ 1329347 w 3841622"/>
-            <a:gd name="connsiteY2" fmla="*/ 2567498 h 2567498"/>
-            <a:gd name="connsiteX3" fmla="*/ 3841622 w 3841622"/>
-            <a:gd name="connsiteY3" fmla="*/ 779753 h 2567498"/>
-            <a:gd name="connsiteX4" fmla="*/ 531027 w 3841622"/>
-            <a:gd name="connsiteY4" fmla="*/ 0 h 2567498"/>
-            <a:gd name="connsiteX0" fmla="*/ 531027 w 3841622"/>
-            <a:gd name="connsiteY0" fmla="*/ 0 h 2583362"/>
-            <a:gd name="connsiteX1" fmla="*/ 0 w 3841622"/>
-            <a:gd name="connsiteY1" fmla="*/ 2273889 h 2583362"/>
-            <a:gd name="connsiteX2" fmla="*/ 1426179 w 3841622"/>
-            <a:gd name="connsiteY2" fmla="*/ 2583362 h 2583362"/>
-            <a:gd name="connsiteX3" fmla="*/ 3841622 w 3841622"/>
-            <a:gd name="connsiteY3" fmla="*/ 779753 h 2583362"/>
-            <a:gd name="connsiteX4" fmla="*/ 531027 w 3841622"/>
-            <a:gd name="connsiteY4" fmla="*/ 0 h 2583362"/>
-            <a:gd name="connsiteX0" fmla="*/ 531027 w 3841622"/>
-            <a:gd name="connsiteY0" fmla="*/ 0 h 3022010"/>
-            <a:gd name="connsiteX1" fmla="*/ 0 w 3841622"/>
-            <a:gd name="connsiteY1" fmla="*/ 2273889 h 3022010"/>
-            <a:gd name="connsiteX2" fmla="*/ 762457 w 3841622"/>
-            <a:gd name="connsiteY2" fmla="*/ 3022010 h 3022010"/>
-            <a:gd name="connsiteX3" fmla="*/ 3841622 w 3841622"/>
-            <a:gd name="connsiteY3" fmla="*/ 779753 h 3022010"/>
-            <a:gd name="connsiteX4" fmla="*/ 531027 w 3841622"/>
-            <a:gd name="connsiteY4" fmla="*/ 0 h 3022010"/>
-            <a:gd name="connsiteX0" fmla="*/ 635776 w 3946371"/>
-            <a:gd name="connsiteY0" fmla="*/ 0 h 3022010"/>
-            <a:gd name="connsiteX1" fmla="*/ 0 w 3946371"/>
-            <a:gd name="connsiteY1" fmla="*/ 2816068 h 3022010"/>
-            <a:gd name="connsiteX2" fmla="*/ 867206 w 3946371"/>
-            <a:gd name="connsiteY2" fmla="*/ 3022010 h 3022010"/>
-            <a:gd name="connsiteX3" fmla="*/ 3946371 w 3946371"/>
-            <a:gd name="connsiteY3" fmla="*/ 779753 h 3022010"/>
-            <a:gd name="connsiteX4" fmla="*/ 635776 w 3946371"/>
-            <a:gd name="connsiteY4" fmla="*/ 0 h 3022010"/>
-          </a:gdLst>
-          <a:ahLst/>
-          <a:cxnLst>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX0" y="connsiteY0"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX1" y="connsiteY1"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX2" y="connsiteY2"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX3" y="connsiteY3"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX4" y="connsiteY4"/>
-            </a:cxn>
-          </a:cxnLst>
-          <a:rect l="l" t="t" r="r" b="b"/>
-          <a:pathLst>
-            <a:path w="3946371" h="3022010">
-              <a:moveTo>
-                <a:pt x="635776" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="0" y="2816068"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="867206" y="3022010"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="3946371" y="779753"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="635776" y="0"/>
-              </a:lnTo>
-              <a:close/>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
+        </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -2689,6 +2508,64 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000"/>
+            <a:t>A</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1855304</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>322863</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2435086</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>207065</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="타원 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3445565" y="5060515"/>
+          <a:ext cx="579782" cy="596507"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
@@ -2701,199 +2578,34 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>201910</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>314536</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1126434</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2209872</xdr:colOff>
+      <xdr:colOff>3172239</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>350607</xdr:rowOff>
+      <xdr:rowOff>265044</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="평행 사변형 3"/>
+        <xdr:cNvPr id="3" name="타원 2"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm rot="4616725">
-          <a:off x="386441" y="3118884"/>
-          <a:ext cx="3228589" cy="3597652"/>
+        <a:xfrm>
+          <a:off x="2716695" y="4381500"/>
+          <a:ext cx="2045805" cy="2045805"/>
         </a:xfrm>
-        <a:custGeom>
+        <a:prstGeom prst="ellipse">
           <a:avLst/>
-          <a:gdLst>
-            <a:gd name="connsiteX0" fmla="*/ 0 w 2419350"/>
-            <a:gd name="connsiteY0" fmla="*/ 2552700 h 2552700"/>
-            <a:gd name="connsiteX1" fmla="*/ 604838 w 2419350"/>
-            <a:gd name="connsiteY1" fmla="*/ 0 h 2552700"/>
-            <a:gd name="connsiteX2" fmla="*/ 2419350 w 2419350"/>
-            <a:gd name="connsiteY2" fmla="*/ 0 h 2552700"/>
-            <a:gd name="connsiteX3" fmla="*/ 1814513 w 2419350"/>
-            <a:gd name="connsiteY3" fmla="*/ 2552700 h 2552700"/>
-            <a:gd name="connsiteX4" fmla="*/ 0 w 2419350"/>
-            <a:gd name="connsiteY4" fmla="*/ 2552700 h 2552700"/>
-            <a:gd name="connsiteX0" fmla="*/ 0 w 2872933"/>
-            <a:gd name="connsiteY0" fmla="*/ 2779969 h 2779969"/>
-            <a:gd name="connsiteX1" fmla="*/ 1058421 w 2872933"/>
-            <a:gd name="connsiteY1" fmla="*/ 0 h 2779969"/>
-            <a:gd name="connsiteX2" fmla="*/ 2872933 w 2872933"/>
-            <a:gd name="connsiteY2" fmla="*/ 0 h 2779969"/>
-            <a:gd name="connsiteX3" fmla="*/ 2268096 w 2872933"/>
-            <a:gd name="connsiteY3" fmla="*/ 2552700 h 2779969"/>
-            <a:gd name="connsiteX4" fmla="*/ 0 w 2872933"/>
-            <a:gd name="connsiteY4" fmla="*/ 2779969 h 2779969"/>
-            <a:gd name="connsiteX0" fmla="*/ 0 w 3133054"/>
-            <a:gd name="connsiteY0" fmla="*/ 2779969 h 3545253"/>
-            <a:gd name="connsiteX1" fmla="*/ 1058421 w 3133054"/>
-            <a:gd name="connsiteY1" fmla="*/ 0 h 3545253"/>
-            <a:gd name="connsiteX2" fmla="*/ 2872933 w 3133054"/>
-            <a:gd name="connsiteY2" fmla="*/ 0 h 3545253"/>
-            <a:gd name="connsiteX3" fmla="*/ 3133054 w 3133054"/>
-            <a:gd name="connsiteY3" fmla="*/ 3545253 h 3545253"/>
-            <a:gd name="connsiteX4" fmla="*/ 0 w 3133054"/>
-            <a:gd name="connsiteY4" fmla="*/ 2779969 h 3545253"/>
-            <a:gd name="connsiteX0" fmla="*/ 0 w 3133054"/>
-            <a:gd name="connsiteY0" fmla="*/ 2779969 h 3545253"/>
-            <a:gd name="connsiteX1" fmla="*/ 355797 w 3133054"/>
-            <a:gd name="connsiteY1" fmla="*/ 795296 h 3545253"/>
-            <a:gd name="connsiteX2" fmla="*/ 2872933 w 3133054"/>
-            <a:gd name="connsiteY2" fmla="*/ 0 h 3545253"/>
-            <a:gd name="connsiteX3" fmla="*/ 3133054 w 3133054"/>
-            <a:gd name="connsiteY3" fmla="*/ 3545253 h 3545253"/>
-            <a:gd name="connsiteX4" fmla="*/ 0 w 3133054"/>
-            <a:gd name="connsiteY4" fmla="*/ 2779969 h 3545253"/>
-            <a:gd name="connsiteX0" fmla="*/ 0 w 3133054"/>
-            <a:gd name="connsiteY0" fmla="*/ 1984673 h 2749957"/>
-            <a:gd name="connsiteX1" fmla="*/ 355797 w 3133054"/>
-            <a:gd name="connsiteY1" fmla="*/ 0 h 2749957"/>
-            <a:gd name="connsiteX2" fmla="*/ 1824441 w 3133054"/>
-            <a:gd name="connsiteY2" fmla="*/ 310910 h 2749957"/>
-            <a:gd name="connsiteX3" fmla="*/ 3133054 w 3133054"/>
-            <a:gd name="connsiteY3" fmla="*/ 2749957 h 2749957"/>
-            <a:gd name="connsiteX4" fmla="*/ 0 w 3133054"/>
-            <a:gd name="connsiteY4" fmla="*/ 1984673 h 2749957"/>
-            <a:gd name="connsiteX0" fmla="*/ 0 w 3133054"/>
-            <a:gd name="connsiteY0" fmla="*/ 1984673 h 2749957"/>
-            <a:gd name="connsiteX1" fmla="*/ 355797 w 3133054"/>
-            <a:gd name="connsiteY1" fmla="*/ 0 h 2749957"/>
-            <a:gd name="connsiteX2" fmla="*/ 1785847 w 3133054"/>
-            <a:gd name="connsiteY2" fmla="*/ 350849 h 2749957"/>
-            <a:gd name="connsiteX3" fmla="*/ 3133054 w 3133054"/>
-            <a:gd name="connsiteY3" fmla="*/ 2749957 h 2749957"/>
-            <a:gd name="connsiteX4" fmla="*/ 0 w 3133054"/>
-            <a:gd name="connsiteY4" fmla="*/ 1984673 h 2749957"/>
-            <a:gd name="connsiteX0" fmla="*/ 0 w 3145307"/>
-            <a:gd name="connsiteY0" fmla="*/ 2008795 h 2749957"/>
-            <a:gd name="connsiteX1" fmla="*/ 368050 w 3145307"/>
-            <a:gd name="connsiteY1" fmla="*/ 0 h 2749957"/>
-            <a:gd name="connsiteX2" fmla="*/ 1798100 w 3145307"/>
-            <a:gd name="connsiteY2" fmla="*/ 350849 h 2749957"/>
-            <a:gd name="connsiteX3" fmla="*/ 3145307 w 3145307"/>
-            <a:gd name="connsiteY3" fmla="*/ 2749957 h 2749957"/>
-            <a:gd name="connsiteX4" fmla="*/ 0 w 3145307"/>
-            <a:gd name="connsiteY4" fmla="*/ 2008795 h 2749957"/>
-            <a:gd name="connsiteX0" fmla="*/ 0 w 3169262"/>
-            <a:gd name="connsiteY0" fmla="*/ 2008795 h 2762296"/>
-            <a:gd name="connsiteX1" fmla="*/ 368050 w 3169262"/>
-            <a:gd name="connsiteY1" fmla="*/ 0 h 2762296"/>
-            <a:gd name="connsiteX2" fmla="*/ 1798100 w 3169262"/>
-            <a:gd name="connsiteY2" fmla="*/ 350849 h 2762296"/>
-            <a:gd name="connsiteX3" fmla="*/ 3169262 w 3169262"/>
-            <a:gd name="connsiteY3" fmla="*/ 2762296 h 2762296"/>
-            <a:gd name="connsiteX4" fmla="*/ 0 w 3169262"/>
-            <a:gd name="connsiteY4" fmla="*/ 2008795 h 2762296"/>
-            <a:gd name="connsiteX0" fmla="*/ 0 w 3169262"/>
-            <a:gd name="connsiteY0" fmla="*/ 2648406 h 3401907"/>
-            <a:gd name="connsiteX1" fmla="*/ 368050 w 3169262"/>
-            <a:gd name="connsiteY1" fmla="*/ 639611 h 3401907"/>
-            <a:gd name="connsiteX2" fmla="*/ 1369669 w 3169262"/>
-            <a:gd name="connsiteY2" fmla="*/ 0 h 3401907"/>
-            <a:gd name="connsiteX3" fmla="*/ 3169262 w 3169262"/>
-            <a:gd name="connsiteY3" fmla="*/ 3401907 h 3401907"/>
-            <a:gd name="connsiteX4" fmla="*/ 0 w 3169262"/>
-            <a:gd name="connsiteY4" fmla="*/ 2648406 h 3401907"/>
-            <a:gd name="connsiteX0" fmla="*/ 0 w 3169262"/>
-            <a:gd name="connsiteY0" fmla="*/ 2845440 h 3598941"/>
-            <a:gd name="connsiteX1" fmla="*/ 540606 w 3169262"/>
-            <a:gd name="connsiteY1" fmla="*/ 0 h 3598941"/>
-            <a:gd name="connsiteX2" fmla="*/ 1369669 w 3169262"/>
-            <a:gd name="connsiteY2" fmla="*/ 197034 h 3598941"/>
-            <a:gd name="connsiteX3" fmla="*/ 3169262 w 3169262"/>
-            <a:gd name="connsiteY3" fmla="*/ 3598941 h 3598941"/>
-            <a:gd name="connsiteX4" fmla="*/ 0 w 3169262"/>
-            <a:gd name="connsiteY4" fmla="*/ 2845440 h 3598941"/>
-            <a:gd name="connsiteX0" fmla="*/ 0 w 3226477"/>
-            <a:gd name="connsiteY0" fmla="*/ 2832081 h 3598941"/>
-            <a:gd name="connsiteX1" fmla="*/ 597821 w 3226477"/>
-            <a:gd name="connsiteY1" fmla="*/ 0 h 3598941"/>
-            <a:gd name="connsiteX2" fmla="*/ 1426884 w 3226477"/>
-            <a:gd name="connsiteY2" fmla="*/ 197034 h 3598941"/>
-            <a:gd name="connsiteX3" fmla="*/ 3226477 w 3226477"/>
-            <a:gd name="connsiteY3" fmla="*/ 3598941 h 3598941"/>
-            <a:gd name="connsiteX4" fmla="*/ 0 w 3226477"/>
-            <a:gd name="connsiteY4" fmla="*/ 2832081 h 3598941"/>
-            <a:gd name="connsiteX0" fmla="*/ 0 w 3207405"/>
-            <a:gd name="connsiteY0" fmla="*/ 2836534 h 3598941"/>
-            <a:gd name="connsiteX1" fmla="*/ 578749 w 3207405"/>
-            <a:gd name="connsiteY1" fmla="*/ 0 h 3598941"/>
-            <a:gd name="connsiteX2" fmla="*/ 1407812 w 3207405"/>
-            <a:gd name="connsiteY2" fmla="*/ 197034 h 3598941"/>
-            <a:gd name="connsiteX3" fmla="*/ 3207405 w 3207405"/>
-            <a:gd name="connsiteY3" fmla="*/ 3598941 h 3598941"/>
-            <a:gd name="connsiteX4" fmla="*/ 0 w 3207405"/>
-            <a:gd name="connsiteY4" fmla="*/ 2836534 h 3598941"/>
-          </a:gdLst>
-          <a:ahLst/>
-          <a:cxnLst>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX0" y="connsiteY0"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX1" y="connsiteY1"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX2" y="connsiteY2"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX3" y="connsiteY3"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX4" y="connsiteY4"/>
-            </a:cxn>
-          </a:cxnLst>
-          <a:rect l="l" t="t" r="r" b="b"/>
-          <a:pathLst>
-            <a:path w="3207405" h="3598941">
-              <a:moveTo>
-                <a:pt x="0" y="2836534"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="578749" y="0"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="1407812" y="197034"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="3207405" y="3598941"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="0" y="2836534"/>
-              </a:lnTo>
-              <a:close/>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
+        </a:prstGeom>
+        <a:noFill/>
         <a:ln>
           <a:solidFill>
-            <a:schemeClr val="tx1"/>
+            <a:schemeClr val="accent2"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -2927,1193 +2639,99 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1024758</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>124810</xdr:rowOff>
+      <xdr:colOff>2120349</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>82826</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1543708</xdr:colOff>
+      <xdr:colOff>2584174</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>262758</xdr:rowOff>
+      <xdr:rowOff>273326</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="순서도: 자기 디스크 11"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="직선 연결선 26"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2614448" y="4177862"/>
-          <a:ext cx="518950" cy="1202120"/>
+        <a:xfrm flipH="1">
+          <a:off x="3710610" y="4820478"/>
+          <a:ext cx="463825" cy="546652"/>
         </a:xfrm>
-        <a:prstGeom prst="flowChartMagneticDisk">
+        <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:ln>
           <a:solidFill>
-            <a:schemeClr val="tx1"/>
+            <a:srgbClr val="FF0000"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
         </a:lnRef>
-        <a:fillRef idx="1">
+        <a:fillRef idx="0">
           <a:schemeClr val="accent1"/>
         </a:fillRef>
         <a:effectRef idx="0">
           <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="tx1"/>
         </a:fontRef>
       </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>A</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1224455</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>295605</xdr:rowOff>
+      <xdr:colOff>1929848</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>115957</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>3093983</xdr:colOff>
+      <xdr:colOff>2120348</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>239112</xdr:rowOff>
+      <xdr:rowOff>314739</xdr:rowOff>
     </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="11" name="그룹 10"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="2814716" y="3608648"/>
-          <a:ext cx="1869528" cy="1724268"/>
-          <a:chOff x="2735317" y="4033346"/>
-          <a:chExt cx="1869528" cy="1717128"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="7" name="원호 6"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3218792" y="4033346"/>
-            <a:ext cx="1386053" cy="1386052"/>
-          </a:xfrm>
-          <a:prstGeom prst="arc">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="19050"/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent2"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent2"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent2"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="8" name="원호 7"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm rot="5400000">
-            <a:off x="3213537" y="4356540"/>
-            <a:ext cx="1386053" cy="1386052"/>
-          </a:xfrm>
-          <a:prstGeom prst="arc">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="19050"/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent2"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent2"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent2"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="9" name="원호 8"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm rot="10800000">
-            <a:off x="2735317" y="4364422"/>
-            <a:ext cx="1386053" cy="1386052"/>
-          </a:xfrm>
-          <a:prstGeom prst="arc">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="19050"/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent2"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent2"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent2"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="10" name="원호 9"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm rot="16200000">
-            <a:off x="2736632" y="4037287"/>
-            <a:ext cx="1386053" cy="1386052"/>
-          </a:xfrm>
-          <a:prstGeom prst="arc">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="19050"/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent2"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent2"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent2"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1767051</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>124810</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2102068</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>91965</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="정육면체 12"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="직선 연결선 28"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3356741" y="4177862"/>
-          <a:ext cx="335017" cy="321879"/>
+          <a:off x="3520109" y="4497457"/>
+          <a:ext cx="190500" cy="911086"/>
         </a:xfrm>
-        <a:prstGeom prst="cube">
+        <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:ln>
           <a:solidFill>
-            <a:schemeClr val="tx1"/>
+            <a:srgbClr val="FF0000"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
         </a:lnRef>
-        <a:fillRef idx="1">
+        <a:fillRef idx="0">
           <a:schemeClr val="accent1"/>
         </a:fillRef>
         <a:effectRef idx="0">
           <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="tx1"/>
         </a:fontRef>
       </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>B</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>14452</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>316624</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>270641</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>7884</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="사다리꼴 13"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6806762" y="4369676"/>
-          <a:ext cx="6168258" cy="2529053"/>
-        </a:xfrm>
-        <a:prstGeom prst="trapezoid">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 114675"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1885838</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>147793</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>623800</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>8056</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="평행 사변형 3"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="4616725">
-          <a:off x="9831498" y="3612426"/>
-          <a:ext cx="3972436" cy="3020927"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst>
-            <a:gd name="connsiteX0" fmla="*/ 0 w 2419350"/>
-            <a:gd name="connsiteY0" fmla="*/ 2552700 h 2552700"/>
-            <a:gd name="connsiteX1" fmla="*/ 604838 w 2419350"/>
-            <a:gd name="connsiteY1" fmla="*/ 0 h 2552700"/>
-            <a:gd name="connsiteX2" fmla="*/ 2419350 w 2419350"/>
-            <a:gd name="connsiteY2" fmla="*/ 0 h 2552700"/>
-            <a:gd name="connsiteX3" fmla="*/ 1814513 w 2419350"/>
-            <a:gd name="connsiteY3" fmla="*/ 2552700 h 2552700"/>
-            <a:gd name="connsiteX4" fmla="*/ 0 w 2419350"/>
-            <a:gd name="connsiteY4" fmla="*/ 2552700 h 2552700"/>
-            <a:gd name="connsiteX0" fmla="*/ 0 w 2872933"/>
-            <a:gd name="connsiteY0" fmla="*/ 2779969 h 2779969"/>
-            <a:gd name="connsiteX1" fmla="*/ 1058421 w 2872933"/>
-            <a:gd name="connsiteY1" fmla="*/ 0 h 2779969"/>
-            <a:gd name="connsiteX2" fmla="*/ 2872933 w 2872933"/>
-            <a:gd name="connsiteY2" fmla="*/ 0 h 2779969"/>
-            <a:gd name="connsiteX3" fmla="*/ 2268096 w 2872933"/>
-            <a:gd name="connsiteY3" fmla="*/ 2552700 h 2779969"/>
-            <a:gd name="connsiteX4" fmla="*/ 0 w 2872933"/>
-            <a:gd name="connsiteY4" fmla="*/ 2779969 h 2779969"/>
-            <a:gd name="connsiteX0" fmla="*/ 0 w 3133054"/>
-            <a:gd name="connsiteY0" fmla="*/ 2779969 h 3545253"/>
-            <a:gd name="connsiteX1" fmla="*/ 1058421 w 3133054"/>
-            <a:gd name="connsiteY1" fmla="*/ 0 h 3545253"/>
-            <a:gd name="connsiteX2" fmla="*/ 2872933 w 3133054"/>
-            <a:gd name="connsiteY2" fmla="*/ 0 h 3545253"/>
-            <a:gd name="connsiteX3" fmla="*/ 3133054 w 3133054"/>
-            <a:gd name="connsiteY3" fmla="*/ 3545253 h 3545253"/>
-            <a:gd name="connsiteX4" fmla="*/ 0 w 3133054"/>
-            <a:gd name="connsiteY4" fmla="*/ 2779969 h 3545253"/>
-            <a:gd name="connsiteX0" fmla="*/ 0 w 3133054"/>
-            <a:gd name="connsiteY0" fmla="*/ 2779969 h 3545253"/>
-            <a:gd name="connsiteX1" fmla="*/ 355797 w 3133054"/>
-            <a:gd name="connsiteY1" fmla="*/ 795296 h 3545253"/>
-            <a:gd name="connsiteX2" fmla="*/ 2872933 w 3133054"/>
-            <a:gd name="connsiteY2" fmla="*/ 0 h 3545253"/>
-            <a:gd name="connsiteX3" fmla="*/ 3133054 w 3133054"/>
-            <a:gd name="connsiteY3" fmla="*/ 3545253 h 3545253"/>
-            <a:gd name="connsiteX4" fmla="*/ 0 w 3133054"/>
-            <a:gd name="connsiteY4" fmla="*/ 2779969 h 3545253"/>
-            <a:gd name="connsiteX0" fmla="*/ 0 w 3133054"/>
-            <a:gd name="connsiteY0" fmla="*/ 1984673 h 2749957"/>
-            <a:gd name="connsiteX1" fmla="*/ 355797 w 3133054"/>
-            <a:gd name="connsiteY1" fmla="*/ 0 h 2749957"/>
-            <a:gd name="connsiteX2" fmla="*/ 1824441 w 3133054"/>
-            <a:gd name="connsiteY2" fmla="*/ 310910 h 2749957"/>
-            <a:gd name="connsiteX3" fmla="*/ 3133054 w 3133054"/>
-            <a:gd name="connsiteY3" fmla="*/ 2749957 h 2749957"/>
-            <a:gd name="connsiteX4" fmla="*/ 0 w 3133054"/>
-            <a:gd name="connsiteY4" fmla="*/ 1984673 h 2749957"/>
-            <a:gd name="connsiteX0" fmla="*/ 0 w 3133054"/>
-            <a:gd name="connsiteY0" fmla="*/ 1984673 h 2749957"/>
-            <a:gd name="connsiteX1" fmla="*/ 355797 w 3133054"/>
-            <a:gd name="connsiteY1" fmla="*/ 0 h 2749957"/>
-            <a:gd name="connsiteX2" fmla="*/ 1785847 w 3133054"/>
-            <a:gd name="connsiteY2" fmla="*/ 350849 h 2749957"/>
-            <a:gd name="connsiteX3" fmla="*/ 3133054 w 3133054"/>
-            <a:gd name="connsiteY3" fmla="*/ 2749957 h 2749957"/>
-            <a:gd name="connsiteX4" fmla="*/ 0 w 3133054"/>
-            <a:gd name="connsiteY4" fmla="*/ 1984673 h 2749957"/>
-            <a:gd name="connsiteX0" fmla="*/ 0 w 3145307"/>
-            <a:gd name="connsiteY0" fmla="*/ 2008795 h 2749957"/>
-            <a:gd name="connsiteX1" fmla="*/ 368050 w 3145307"/>
-            <a:gd name="connsiteY1" fmla="*/ 0 h 2749957"/>
-            <a:gd name="connsiteX2" fmla="*/ 1798100 w 3145307"/>
-            <a:gd name="connsiteY2" fmla="*/ 350849 h 2749957"/>
-            <a:gd name="connsiteX3" fmla="*/ 3145307 w 3145307"/>
-            <a:gd name="connsiteY3" fmla="*/ 2749957 h 2749957"/>
-            <a:gd name="connsiteX4" fmla="*/ 0 w 3145307"/>
-            <a:gd name="connsiteY4" fmla="*/ 2008795 h 2749957"/>
-            <a:gd name="connsiteX0" fmla="*/ 325582 w 2777257"/>
-            <a:gd name="connsiteY0" fmla="*/ 0 h 4073458"/>
-            <a:gd name="connsiteX1" fmla="*/ 0 w 2777257"/>
-            <a:gd name="connsiteY1" fmla="*/ 1323501 h 4073458"/>
-            <a:gd name="connsiteX2" fmla="*/ 1430050 w 2777257"/>
-            <a:gd name="connsiteY2" fmla="*/ 1674350 h 4073458"/>
-            <a:gd name="connsiteX3" fmla="*/ 2777257 w 2777257"/>
-            <a:gd name="connsiteY3" fmla="*/ 4073458 h 4073458"/>
-            <a:gd name="connsiteX4" fmla="*/ 325582 w 2777257"/>
-            <a:gd name="connsiteY4" fmla="*/ 0 h 4073458"/>
-            <a:gd name="connsiteX0" fmla="*/ 325582 w 3636177"/>
-            <a:gd name="connsiteY0" fmla="*/ 0 h 1674350"/>
-            <a:gd name="connsiteX1" fmla="*/ 0 w 3636177"/>
-            <a:gd name="connsiteY1" fmla="*/ 1323501 h 1674350"/>
-            <a:gd name="connsiteX2" fmla="*/ 1430050 w 3636177"/>
-            <a:gd name="connsiteY2" fmla="*/ 1674350 h 1674350"/>
-            <a:gd name="connsiteX3" fmla="*/ 3636177 w 3636177"/>
-            <a:gd name="connsiteY3" fmla="*/ 779753 h 1674350"/>
-            <a:gd name="connsiteX4" fmla="*/ 325582 w 3636177"/>
-            <a:gd name="connsiteY4" fmla="*/ 0 h 1674350"/>
-            <a:gd name="connsiteX0" fmla="*/ 325582 w 3636177"/>
-            <a:gd name="connsiteY0" fmla="*/ 0 h 2567498"/>
-            <a:gd name="connsiteX1" fmla="*/ 0 w 3636177"/>
-            <a:gd name="connsiteY1" fmla="*/ 1323501 h 2567498"/>
-            <a:gd name="connsiteX2" fmla="*/ 1123902 w 3636177"/>
-            <a:gd name="connsiteY2" fmla="*/ 2567498 h 2567498"/>
-            <a:gd name="connsiteX3" fmla="*/ 3636177 w 3636177"/>
-            <a:gd name="connsiteY3" fmla="*/ 779753 h 2567498"/>
-            <a:gd name="connsiteX4" fmla="*/ 325582 w 3636177"/>
-            <a:gd name="connsiteY4" fmla="*/ 0 h 2567498"/>
-            <a:gd name="connsiteX0" fmla="*/ 531027 w 3841622"/>
-            <a:gd name="connsiteY0" fmla="*/ 0 h 2567498"/>
-            <a:gd name="connsiteX1" fmla="*/ 0 w 3841622"/>
-            <a:gd name="connsiteY1" fmla="*/ 2273889 h 2567498"/>
-            <a:gd name="connsiteX2" fmla="*/ 1329347 w 3841622"/>
-            <a:gd name="connsiteY2" fmla="*/ 2567498 h 2567498"/>
-            <a:gd name="connsiteX3" fmla="*/ 3841622 w 3841622"/>
-            <a:gd name="connsiteY3" fmla="*/ 779753 h 2567498"/>
-            <a:gd name="connsiteX4" fmla="*/ 531027 w 3841622"/>
-            <a:gd name="connsiteY4" fmla="*/ 0 h 2567498"/>
-            <a:gd name="connsiteX0" fmla="*/ 531027 w 3841622"/>
-            <a:gd name="connsiteY0" fmla="*/ 0 h 2583362"/>
-            <a:gd name="connsiteX1" fmla="*/ 0 w 3841622"/>
-            <a:gd name="connsiteY1" fmla="*/ 2273889 h 2583362"/>
-            <a:gd name="connsiteX2" fmla="*/ 1426179 w 3841622"/>
-            <a:gd name="connsiteY2" fmla="*/ 2583362 h 2583362"/>
-            <a:gd name="connsiteX3" fmla="*/ 3841622 w 3841622"/>
-            <a:gd name="connsiteY3" fmla="*/ 779753 h 2583362"/>
-            <a:gd name="connsiteX4" fmla="*/ 531027 w 3841622"/>
-            <a:gd name="connsiteY4" fmla="*/ 0 h 2583362"/>
-            <a:gd name="connsiteX0" fmla="*/ 531027 w 3841622"/>
-            <a:gd name="connsiteY0" fmla="*/ 0 h 3022010"/>
-            <a:gd name="connsiteX1" fmla="*/ 0 w 3841622"/>
-            <a:gd name="connsiteY1" fmla="*/ 2273889 h 3022010"/>
-            <a:gd name="connsiteX2" fmla="*/ 762457 w 3841622"/>
-            <a:gd name="connsiteY2" fmla="*/ 3022010 h 3022010"/>
-            <a:gd name="connsiteX3" fmla="*/ 3841622 w 3841622"/>
-            <a:gd name="connsiteY3" fmla="*/ 779753 h 3022010"/>
-            <a:gd name="connsiteX4" fmla="*/ 531027 w 3841622"/>
-            <a:gd name="connsiteY4" fmla="*/ 0 h 3022010"/>
-            <a:gd name="connsiteX0" fmla="*/ 635776 w 3946371"/>
-            <a:gd name="connsiteY0" fmla="*/ 0 h 3022010"/>
-            <a:gd name="connsiteX1" fmla="*/ 0 w 3946371"/>
-            <a:gd name="connsiteY1" fmla="*/ 2816068 h 3022010"/>
-            <a:gd name="connsiteX2" fmla="*/ 867206 w 3946371"/>
-            <a:gd name="connsiteY2" fmla="*/ 3022010 h 3022010"/>
-            <a:gd name="connsiteX3" fmla="*/ 3946371 w 3946371"/>
-            <a:gd name="connsiteY3" fmla="*/ 779753 h 3022010"/>
-            <a:gd name="connsiteX4" fmla="*/ 635776 w 3946371"/>
-            <a:gd name="connsiteY4" fmla="*/ 0 h 3022010"/>
-          </a:gdLst>
-          <a:ahLst/>
-          <a:cxnLst>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX0" y="connsiteY0"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX1" y="connsiteY1"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX2" y="connsiteY2"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX3" y="connsiteY3"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX4" y="connsiteY4"/>
-            </a:cxn>
-          </a:cxnLst>
-          <a:rect l="l" t="t" r="r" b="b"/>
-          <a:pathLst>
-            <a:path w="3946371" h="3022010">
-              <a:moveTo>
-                <a:pt x="635776" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="0" y="2816068"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="867206" y="3022010"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="3946371" y="779753"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="635776" y="0"/>
-              </a:lnTo>
-              <a:close/>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>314896</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>315850</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1560858</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>351921</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="평행 사변형 3"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="4616725">
-          <a:off x="6569151" y="3120198"/>
-          <a:ext cx="3228589" cy="3597652"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst>
-            <a:gd name="connsiteX0" fmla="*/ 0 w 2419350"/>
-            <a:gd name="connsiteY0" fmla="*/ 2552700 h 2552700"/>
-            <a:gd name="connsiteX1" fmla="*/ 604838 w 2419350"/>
-            <a:gd name="connsiteY1" fmla="*/ 0 h 2552700"/>
-            <a:gd name="connsiteX2" fmla="*/ 2419350 w 2419350"/>
-            <a:gd name="connsiteY2" fmla="*/ 0 h 2552700"/>
-            <a:gd name="connsiteX3" fmla="*/ 1814513 w 2419350"/>
-            <a:gd name="connsiteY3" fmla="*/ 2552700 h 2552700"/>
-            <a:gd name="connsiteX4" fmla="*/ 0 w 2419350"/>
-            <a:gd name="connsiteY4" fmla="*/ 2552700 h 2552700"/>
-            <a:gd name="connsiteX0" fmla="*/ 0 w 2872933"/>
-            <a:gd name="connsiteY0" fmla="*/ 2779969 h 2779969"/>
-            <a:gd name="connsiteX1" fmla="*/ 1058421 w 2872933"/>
-            <a:gd name="connsiteY1" fmla="*/ 0 h 2779969"/>
-            <a:gd name="connsiteX2" fmla="*/ 2872933 w 2872933"/>
-            <a:gd name="connsiteY2" fmla="*/ 0 h 2779969"/>
-            <a:gd name="connsiteX3" fmla="*/ 2268096 w 2872933"/>
-            <a:gd name="connsiteY3" fmla="*/ 2552700 h 2779969"/>
-            <a:gd name="connsiteX4" fmla="*/ 0 w 2872933"/>
-            <a:gd name="connsiteY4" fmla="*/ 2779969 h 2779969"/>
-            <a:gd name="connsiteX0" fmla="*/ 0 w 3133054"/>
-            <a:gd name="connsiteY0" fmla="*/ 2779969 h 3545253"/>
-            <a:gd name="connsiteX1" fmla="*/ 1058421 w 3133054"/>
-            <a:gd name="connsiteY1" fmla="*/ 0 h 3545253"/>
-            <a:gd name="connsiteX2" fmla="*/ 2872933 w 3133054"/>
-            <a:gd name="connsiteY2" fmla="*/ 0 h 3545253"/>
-            <a:gd name="connsiteX3" fmla="*/ 3133054 w 3133054"/>
-            <a:gd name="connsiteY3" fmla="*/ 3545253 h 3545253"/>
-            <a:gd name="connsiteX4" fmla="*/ 0 w 3133054"/>
-            <a:gd name="connsiteY4" fmla="*/ 2779969 h 3545253"/>
-            <a:gd name="connsiteX0" fmla="*/ 0 w 3133054"/>
-            <a:gd name="connsiteY0" fmla="*/ 2779969 h 3545253"/>
-            <a:gd name="connsiteX1" fmla="*/ 355797 w 3133054"/>
-            <a:gd name="connsiteY1" fmla="*/ 795296 h 3545253"/>
-            <a:gd name="connsiteX2" fmla="*/ 2872933 w 3133054"/>
-            <a:gd name="connsiteY2" fmla="*/ 0 h 3545253"/>
-            <a:gd name="connsiteX3" fmla="*/ 3133054 w 3133054"/>
-            <a:gd name="connsiteY3" fmla="*/ 3545253 h 3545253"/>
-            <a:gd name="connsiteX4" fmla="*/ 0 w 3133054"/>
-            <a:gd name="connsiteY4" fmla="*/ 2779969 h 3545253"/>
-            <a:gd name="connsiteX0" fmla="*/ 0 w 3133054"/>
-            <a:gd name="connsiteY0" fmla="*/ 1984673 h 2749957"/>
-            <a:gd name="connsiteX1" fmla="*/ 355797 w 3133054"/>
-            <a:gd name="connsiteY1" fmla="*/ 0 h 2749957"/>
-            <a:gd name="connsiteX2" fmla="*/ 1824441 w 3133054"/>
-            <a:gd name="connsiteY2" fmla="*/ 310910 h 2749957"/>
-            <a:gd name="connsiteX3" fmla="*/ 3133054 w 3133054"/>
-            <a:gd name="connsiteY3" fmla="*/ 2749957 h 2749957"/>
-            <a:gd name="connsiteX4" fmla="*/ 0 w 3133054"/>
-            <a:gd name="connsiteY4" fmla="*/ 1984673 h 2749957"/>
-            <a:gd name="connsiteX0" fmla="*/ 0 w 3133054"/>
-            <a:gd name="connsiteY0" fmla="*/ 1984673 h 2749957"/>
-            <a:gd name="connsiteX1" fmla="*/ 355797 w 3133054"/>
-            <a:gd name="connsiteY1" fmla="*/ 0 h 2749957"/>
-            <a:gd name="connsiteX2" fmla="*/ 1785847 w 3133054"/>
-            <a:gd name="connsiteY2" fmla="*/ 350849 h 2749957"/>
-            <a:gd name="connsiteX3" fmla="*/ 3133054 w 3133054"/>
-            <a:gd name="connsiteY3" fmla="*/ 2749957 h 2749957"/>
-            <a:gd name="connsiteX4" fmla="*/ 0 w 3133054"/>
-            <a:gd name="connsiteY4" fmla="*/ 1984673 h 2749957"/>
-            <a:gd name="connsiteX0" fmla="*/ 0 w 3145307"/>
-            <a:gd name="connsiteY0" fmla="*/ 2008795 h 2749957"/>
-            <a:gd name="connsiteX1" fmla="*/ 368050 w 3145307"/>
-            <a:gd name="connsiteY1" fmla="*/ 0 h 2749957"/>
-            <a:gd name="connsiteX2" fmla="*/ 1798100 w 3145307"/>
-            <a:gd name="connsiteY2" fmla="*/ 350849 h 2749957"/>
-            <a:gd name="connsiteX3" fmla="*/ 3145307 w 3145307"/>
-            <a:gd name="connsiteY3" fmla="*/ 2749957 h 2749957"/>
-            <a:gd name="connsiteX4" fmla="*/ 0 w 3145307"/>
-            <a:gd name="connsiteY4" fmla="*/ 2008795 h 2749957"/>
-            <a:gd name="connsiteX0" fmla="*/ 0 w 3169262"/>
-            <a:gd name="connsiteY0" fmla="*/ 2008795 h 2762296"/>
-            <a:gd name="connsiteX1" fmla="*/ 368050 w 3169262"/>
-            <a:gd name="connsiteY1" fmla="*/ 0 h 2762296"/>
-            <a:gd name="connsiteX2" fmla="*/ 1798100 w 3169262"/>
-            <a:gd name="connsiteY2" fmla="*/ 350849 h 2762296"/>
-            <a:gd name="connsiteX3" fmla="*/ 3169262 w 3169262"/>
-            <a:gd name="connsiteY3" fmla="*/ 2762296 h 2762296"/>
-            <a:gd name="connsiteX4" fmla="*/ 0 w 3169262"/>
-            <a:gd name="connsiteY4" fmla="*/ 2008795 h 2762296"/>
-            <a:gd name="connsiteX0" fmla="*/ 0 w 3169262"/>
-            <a:gd name="connsiteY0" fmla="*/ 2648406 h 3401907"/>
-            <a:gd name="connsiteX1" fmla="*/ 368050 w 3169262"/>
-            <a:gd name="connsiteY1" fmla="*/ 639611 h 3401907"/>
-            <a:gd name="connsiteX2" fmla="*/ 1369669 w 3169262"/>
-            <a:gd name="connsiteY2" fmla="*/ 0 h 3401907"/>
-            <a:gd name="connsiteX3" fmla="*/ 3169262 w 3169262"/>
-            <a:gd name="connsiteY3" fmla="*/ 3401907 h 3401907"/>
-            <a:gd name="connsiteX4" fmla="*/ 0 w 3169262"/>
-            <a:gd name="connsiteY4" fmla="*/ 2648406 h 3401907"/>
-            <a:gd name="connsiteX0" fmla="*/ 0 w 3169262"/>
-            <a:gd name="connsiteY0" fmla="*/ 2845440 h 3598941"/>
-            <a:gd name="connsiteX1" fmla="*/ 540606 w 3169262"/>
-            <a:gd name="connsiteY1" fmla="*/ 0 h 3598941"/>
-            <a:gd name="connsiteX2" fmla="*/ 1369669 w 3169262"/>
-            <a:gd name="connsiteY2" fmla="*/ 197034 h 3598941"/>
-            <a:gd name="connsiteX3" fmla="*/ 3169262 w 3169262"/>
-            <a:gd name="connsiteY3" fmla="*/ 3598941 h 3598941"/>
-            <a:gd name="connsiteX4" fmla="*/ 0 w 3169262"/>
-            <a:gd name="connsiteY4" fmla="*/ 2845440 h 3598941"/>
-            <a:gd name="connsiteX0" fmla="*/ 0 w 3226477"/>
-            <a:gd name="connsiteY0" fmla="*/ 2832081 h 3598941"/>
-            <a:gd name="connsiteX1" fmla="*/ 597821 w 3226477"/>
-            <a:gd name="connsiteY1" fmla="*/ 0 h 3598941"/>
-            <a:gd name="connsiteX2" fmla="*/ 1426884 w 3226477"/>
-            <a:gd name="connsiteY2" fmla="*/ 197034 h 3598941"/>
-            <a:gd name="connsiteX3" fmla="*/ 3226477 w 3226477"/>
-            <a:gd name="connsiteY3" fmla="*/ 3598941 h 3598941"/>
-            <a:gd name="connsiteX4" fmla="*/ 0 w 3226477"/>
-            <a:gd name="connsiteY4" fmla="*/ 2832081 h 3598941"/>
-            <a:gd name="connsiteX0" fmla="*/ 0 w 3207405"/>
-            <a:gd name="connsiteY0" fmla="*/ 2836534 h 3598941"/>
-            <a:gd name="connsiteX1" fmla="*/ 578749 w 3207405"/>
-            <a:gd name="connsiteY1" fmla="*/ 0 h 3598941"/>
-            <a:gd name="connsiteX2" fmla="*/ 1407812 w 3207405"/>
-            <a:gd name="connsiteY2" fmla="*/ 197034 h 3598941"/>
-            <a:gd name="connsiteX3" fmla="*/ 3207405 w 3207405"/>
-            <a:gd name="connsiteY3" fmla="*/ 3598941 h 3598941"/>
-            <a:gd name="connsiteX4" fmla="*/ 0 w 3207405"/>
-            <a:gd name="connsiteY4" fmla="*/ 2836534 h 3598941"/>
-          </a:gdLst>
-          <a:ahLst/>
-          <a:cxnLst>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX0" y="connsiteY0"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX1" y="connsiteY1"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX2" y="connsiteY2"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX3" y="connsiteY3"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX4" y="connsiteY4"/>
-            </a:cxn>
-          </a:cxnLst>
-          <a:rect l="l" t="t" r="r" b="b"/>
-          <a:pathLst>
-            <a:path w="3207405" h="3598941">
-              <a:moveTo>
-                <a:pt x="0" y="2836534"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="578749" y="0"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="1407812" y="197034"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="3207405" y="3598941"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="0" y="2836534"/>
-              </a:lnTo>
-              <a:close/>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>375744</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>126124</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>894694</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>264072</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="순서도: 자기 디스크 16"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8797158" y="4179176"/>
-          <a:ext cx="518950" cy="1202120"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartMagneticDisk">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>A</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>851337</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>158970</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1774934</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>102478</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="18" name="그룹 17"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="8330533" y="3828166"/>
-          <a:ext cx="1867814" cy="1724269"/>
-          <a:chOff x="2735317" y="4033346"/>
-          <a:chExt cx="1869528" cy="1717128"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="19" name="원호 18"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3218792" y="4033346"/>
-            <a:ext cx="1386053" cy="1386052"/>
-          </a:xfrm>
-          <a:prstGeom prst="arc">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="19050"/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent2"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent2"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent2"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="20" name="원호 19"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm rot="5400000">
-            <a:off x="3213537" y="4356540"/>
-            <a:ext cx="1386053" cy="1386052"/>
-          </a:xfrm>
-          <a:prstGeom prst="arc">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="19050"/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent2"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent2"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent2"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="21" name="원호 20"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm rot="10800000">
-            <a:off x="2735317" y="4364422"/>
-            <a:ext cx="1386053" cy="1386052"/>
-          </a:xfrm>
-          <a:prstGeom prst="arc">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="19050"/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent2"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent2"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent2"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="22" name="원호 21"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm rot="16200000">
-            <a:off x="2736632" y="4037287"/>
-            <a:ext cx="1386053" cy="1386052"/>
-          </a:xfrm>
-          <a:prstGeom prst="arc">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="19050"/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent2"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent2"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent2"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1118037</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>126124</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1453054</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>93279</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="정육면체 22"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9539451" y="4179176"/>
-          <a:ext cx="335017" cy="321879"/>
-        </a:xfrm>
-        <a:prstGeom prst="cube">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>B</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4385,7 +3003,7 @@
   <dimension ref="B2:E8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4424,44 +3042,50 @@
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
@@ -4481,7 +3105,7 @@
   <dimension ref="B2:F24"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4495,7 +3119,7 @@
   <sheetData>
     <row r="2" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E2" s="22"/>
     </row>
@@ -4507,7 +3131,7 @@
         <v>21</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F3" s="21"/>
     </row>
@@ -4519,10 +3143,10 @@
         <v>22</v>
       </c>
       <c r="E4" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
@@ -4533,10 +3157,10 @@
         <v>23</v>
       </c>
       <c r="E5" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
@@ -4558,18 +3182,18 @@
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
@@ -4582,24 +3206,24 @@
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C12" s="3"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
@@ -4615,7 +3239,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.3">
@@ -4623,12 +3247,12 @@
         <v>15</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>29</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C17" s="3"/>
     </row>
@@ -4647,7 +3271,7 @@
         <v>17</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.3">
@@ -4655,7 +3279,7 @@
         <v>18</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.3">
@@ -4663,7 +3287,7 @@
         <v>19</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.3">
@@ -4671,7 +3295,7 @@
         <v>20</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -4704,94 +3328,94 @@
   <sheetData>
     <row r="2" spans="2:12" ht="31.5" x14ac:dyDescent="0.3">
       <c r="B2" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4" s="23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="2:12" ht="10.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" s="23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>43</v>
-      </c>
       <c r="E12" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G12" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I12" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="H12" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>65</v>
-      </c>
       <c r="J12" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="K12" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="K12" s="8" t="s">
-        <v>68</v>
-      </c>
       <c r="L12" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E13" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H13" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="I13" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>70</v>
       </c>
       <c r="J13" s="4" t="s">
         <v>28</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L13" s="4" t="s">
         <v>28</v>
@@ -4799,16 +3423,16 @@
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G14" s="9"/>
       <c r="H14" s="10"/>
@@ -4819,19 +3443,19 @@
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>87</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>28</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
@@ -4845,7 +3469,7 @@
       <c r="D16" s="10"/>
       <c r="E16" s="11"/>
       <c r="G16" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
@@ -4855,13 +3479,13 @@
     </row>
     <row r="17" spans="2:12" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B17" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="13"/>
       <c r="G17" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
@@ -4871,7 +3495,7 @@
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -4885,7 +3509,7 @@
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B19" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -4959,19 +3583,19 @@
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B25" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E25" s="13"/>
       <c r="G25" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H25" s="5"/>
       <c r="I25" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
@@ -4983,11 +3607,11 @@
       <c r="D26" s="5"/>
       <c r="E26" s="13"/>
       <c r="G26" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H26" s="5"/>
       <c r="I26" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
@@ -5001,7 +3625,7 @@
       <c r="G27" s="16"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
@@ -5009,16 +3633,16 @@
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B28" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C28" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>43</v>
-      </c>
       <c r="E28" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G28" s="16"/>
       <c r="H28" s="5"/>
@@ -5029,13 +3653,13 @@
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B29" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="D29" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>28</v>
@@ -5049,16 +3673,16 @@
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B30" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G30" s="9"/>
       <c r="H30" s="10"/>
@@ -5093,7 +3717,7 @@
     </row>
     <row r="33" spans="2:12" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B33" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
@@ -5107,7 +3731,7 @@
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B34" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
@@ -5121,7 +3745,7 @@
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B35" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
@@ -5195,11 +3819,11 @@
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B41" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E41" s="13"/>
       <c r="G41" s="16"/>
@@ -5215,7 +3839,7 @@
       <c r="D42" s="18"/>
       <c r="E42" s="19"/>
       <c r="G42" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
@@ -5225,19 +3849,19 @@
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B43" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D43" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C43" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>43</v>
-      </c>
       <c r="E43" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G43" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
@@ -5247,16 +3871,16 @@
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B44" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G44" s="17"/>
       <c r="H44" s="18"/>
@@ -5267,16 +3891,16 @@
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B45" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C45" s="3" t="s">
-        <v>90</v>
-      </c>
       <c r="D45" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.3">
@@ -5293,7 +3917,7 @@
     </row>
     <row r="48" spans="2:12" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B48" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
@@ -5301,7 +3925,7 @@
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B49" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
@@ -5309,7 +3933,7 @@
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B50" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
@@ -5359,11 +3983,11 @@
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B58" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C58" s="5"/>
       <c r="D58" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E58" s="13"/>
     </row>
@@ -5390,8 +4014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J24"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5408,76 +4032,74 @@
   <sheetData>
     <row r="2" spans="2:10" ht="31.5" x14ac:dyDescent="0.3">
       <c r="B2" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4" s="23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="10.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" s="23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="25" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D14" s="13"/>
-      <c r="E14" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>117</v>
-      </c>
+      <c r="E14" s="9"/>
+      <c r="F14" s="10"/>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
       <c r="J14" s="11"/>
     </row>
     <row r="15" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="15"/>
+      <c r="B15" s="15" t="s">
+        <v>118</v>
+      </c>
       <c r="C15" s="5"/>
       <c r="D15" s="13"/>
       <c r="E15" s="16"/>
@@ -5488,7 +4110,9 @@
       <c r="J15" s="13"/>
     </row>
     <row r="16" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="15"/>
+      <c r="B16" s="14" t="s">
+        <v>119</v>
+      </c>
       <c r="C16" s="5"/>
       <c r="D16" s="13"/>
       <c r="E16" s="16"/>

--- a/Document/조작 시스템 문서_강동민.xlsx
+++ b/Document/조작 시스템 문서_강동민.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="117">
   <si>
     <t xml:space="preserve">작성날짜 </t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -201,91 +201,99 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>시야</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동경로</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>좌, 우 이동</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>왼쪽, 오른쪽 이동만 해당한다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>카메라</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>후방 이동</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>조작키: A</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>조작키: D</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>조작키: W</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>조작키W+A</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>조작키: S</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>조작키: A+S</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 현재 문서는 백뷰를 기준으로 작성 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>조작키</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>마우스</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>마우스를 따라 이동</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>명칭</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>상승속도</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>가속도</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>가속도</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>점프</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>미정</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>전방으로 이동하는 속도로 전진의 범위는 대각선을 포함한다</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>시야</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>이동경로</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>좌, 우 이동</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>왼쪽, 오른쪽 이동만 해당한다</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>카메라</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>전방 이동</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>후방 이동</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>조작키: A</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>조작키: D</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>조작키: W</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>조작키W+A</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>조작키: S</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>조작키: A+S</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 현재 문서는 백뷰를 기준으로 작성 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>조작키</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>설명</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>마우스</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>마우스를 따라 이동</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>명칭</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>상승속도</t>
+    <t>점프 이동 속도</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -293,35 +301,107 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>낙하속도</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>가속도</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>점프</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>미정</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>점프의 속도와 점프후 방향 이동은 자유이동</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>탑뷰예시</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>사이드 뷰 예시</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>조작: Space Bar</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>조작:Spac Bar 후 w누르고 있기</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>위 아래 로만 이동</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>위로 이동하면서 점점 전방으로 전방이동의 x만큼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>가속함</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>조작: Shift+w 누르면서 Space Bar</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>달리는 속도의 가속도를 받으면서 이동</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>전방으로 이동가능한 방향으로 이동중 달리기 버튼을 누른상태</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>미정</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>점프 이동 속도</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>가속도</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>가속도</t>
+    <t>후방으로 이동하는 속도로 후진 범위는 대각선을 포함한다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.03.15</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>강동민</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>앉기 내용 추가</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>상호작용</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 플레이어 캐릭터 상호작용에 관한 문서</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>액션</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -329,43 +409,82 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>점프의 속도와 점프후 방향 이동은 자유이동</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>탑뷰예시</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>사이드 뷰 예시</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>조작: Space Bar</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>조작:Spac Bar 후 w누르고 있기</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>위 아래 로만 이동</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>위로 이동하면서 점점 전방으로 전방이동의 x만큼</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>가속함</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>조작: Shift+w 누르면서 Space Bar</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>달리는 속도의 가속도를 받으면서 이동</t>
+    <t>Left Alt</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Left Ctrl</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.03.20</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>조작키 수정</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>v</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 다른 오브젝트와의 상호작용에 관한 룰에 관한 설명</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>오브젝트 인식</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.03.21</t>
+  </si>
+  <si>
+    <t>강동민</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>상호작용 내용추가</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>대쉬</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 인식범위와 가장 가까이 있는 대상을 대상으로 지정합니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>인식범위</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>인식선</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>예시: B오브젝트를 인식</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.03.28</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>상호작용 내용수정</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.04.05</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -373,150 +492,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>전방으로 이동가능한 방향으로 이동중 달리기 버튼을 누른상태</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>미정</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>앉기</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>후방으로 이동하는 속도로 후진 범위는 대각선을 포함한다</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>앉은 상태로 전방 이동시 대각선을 포함</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>왼쪽, 오른쪽 이동만 해당</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019.03.15</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>강동민</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>앉기 내용 추가</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>상호작용</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 플레이어 캐릭터 상호작용에 관한 문서</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Q</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>E</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>액션</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>미정</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Left Alt</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Left Ctrl</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019.03.20</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>조작키 수정</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>v</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 다른 오브젝트와의 상호작용에 관한 룰에 관한 설명</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>오브젝트 인식</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>비고</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019.03.21</t>
-  </si>
-  <si>
-    <t>강동민</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>상호작용 내용추가</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>대쉬</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>플레이어 인식범위와 가장 가까이 있는 대상을 대상으로 지정합니다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>플레이어</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>인식범위</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>인식선</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>예시: B오브젝트를 인식</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019.03.28</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>상호작용 내용수정</t>
+    <t>중력</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -884,13 +860,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>923925</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1028700</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -945,13 +921,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>490538</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -994,13 +970,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2952751</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>4067175</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1055,13 +1031,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2562227</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>3115955</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>167149</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1104,13 +1080,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>809625</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>120092</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1152525</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>7363</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1166,13 +1142,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2828925</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>15316</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>4162425</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>112137</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1228,13 +1204,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1343025</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2419350</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1289,13 +1265,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>100013</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1343025</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1338,13 +1314,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1219200</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>158192</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2533650</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>83563</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1400,13 +1376,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2419350</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>3381375</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>100013</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1449,13 +1425,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>814820</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>169718</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>919595</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>198293</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1510,13 +1486,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>381433</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>198293</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1559,13 +1535,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2843645</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>83993</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>3919970</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>112568</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1620,13 +1596,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2457450</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>164494</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>3001269</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1669,13 +1645,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>700520</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>156460</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1043420</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>81831</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1731,13 +1707,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2719820</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>51685</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>4048125</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>186606</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1793,13 +1769,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>838200</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>971550</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1854,13 +1830,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>433388</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1903,13 +1879,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>2562225</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1964,13 +1940,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>799314</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>82778</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>2162178</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>139928</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2026,13 +2002,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>580239</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>25628</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>571503</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>44678</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2088,13 +2064,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2135,13 +2111,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>14288</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2184,13 +2160,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1657350</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>2733675</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2245,13 +2221,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>2590014</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>235178</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>352428</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>168503</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2307,13 +2283,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>2733675</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>138113</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>157624</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>138574</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2356,13 +2332,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>138113</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1657350</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3000,10 +2976,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E8"/>
+  <dimension ref="B2:E11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3042,57 +3018,77 @@
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>114</v>
+      </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -3105,7 +3101,7 @@
   <dimension ref="B2:F24"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3131,7 +3127,7 @@
         <v>21</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F3" s="21"/>
     </row>
@@ -3143,10 +3139,10 @@
         <v>22</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
@@ -3157,10 +3153,10 @@
         <v>23</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
@@ -3182,18 +3178,18 @@
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
@@ -3206,7 +3202,7 @@
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>39</v>
@@ -3214,16 +3210,16 @@
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C12" s="3"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
@@ -3239,7 +3235,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.3">
@@ -3247,12 +3243,12 @@
         <v>15</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C17" s="3"/>
     </row>
@@ -3307,10 +3303,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L60"/>
+  <dimension ref="B2:L56"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I52" sqref="I52"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3349,7 +3345,7 @@
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
@@ -3368,94 +3364,82 @@
         <v>42</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H12" s="8" t="s">
         <v>40</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="J12" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="L12" s="8" t="s">
         <v>66</v>
-      </c>
-      <c r="K12" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="L12" s="8" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
-        <v>50</v>
+        <v>115</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" s="2">
+        <v>10</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I13" s="2">
+        <v>250</v>
+      </c>
+      <c r="J13" s="2">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B14" s="9"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="11"/>
+      <c r="G14" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="13"/>
+    </row>
+    <row r="15" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="13"/>
+      <c r="G15" s="14" t="s">
         <v>43</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B14" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="G14" s="9"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="11"/>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B15" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="G15" s="16" t="s">
-        <v>77</v>
       </c>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
@@ -3463,13 +3447,15 @@
       <c r="K15" s="5"/>
       <c r="L15" s="13"/>
     </row>
-    <row r="16" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="9"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
-      <c r="G16" s="14" t="s">
-        <v>45</v>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B16" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="13"/>
+      <c r="G16" s="15" t="s">
+        <v>44</v>
       </c>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
@@ -3477,16 +3463,14 @@
       <c r="K16" s="5"/>
       <c r="L16" s="13"/>
     </row>
-    <row r="17" spans="2:12" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B17" s="12" t="s">
-        <v>76</v>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B17" s="15" t="s">
+        <v>44</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="13"/>
-      <c r="G17" s="15" t="s">
-        <v>46</v>
-      </c>
+      <c r="G17" s="16"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
@@ -3494,9 +3478,7 @@
       <c r="L17" s="13"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B18" s="14" t="s">
-        <v>45</v>
-      </c>
+      <c r="B18" s="16"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="13"/>
@@ -3508,9 +3490,7 @@
       <c r="L18" s="13"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B19" s="15" t="s">
-        <v>46</v>
-      </c>
+      <c r="B19" s="16"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="13"/>
@@ -3558,9 +3538,13 @@
       <c r="L22" s="13"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B23" s="16"/>
+      <c r="B23" s="16" t="s">
+        <v>51</v>
+      </c>
       <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
+      <c r="D23" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="E23" s="13"/>
       <c r="G23" s="16"/>
       <c r="H23" s="5"/>
@@ -3574,128 +3558,120 @@
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="13"/>
-      <c r="G24" s="16"/>
+      <c r="G24" s="16" t="s">
+        <v>73</v>
+      </c>
       <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
+      <c r="I24" s="5" t="s">
+        <v>74</v>
+      </c>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
       <c r="L24" s="13"/>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B25" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E25" s="13"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="19"/>
       <c r="G25" s="16" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H25" s="5"/>
       <c r="I25" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
       <c r="L25" s="13"/>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B26" s="16"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="13"/>
-      <c r="G26" s="16" t="s">
-        <v>80</v>
-      </c>
+      <c r="B26" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G26" s="16"/>
       <c r="H26" s="5"/>
       <c r="I26" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
       <c r="L26" s="13"/>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B27" s="17"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="19"/>
+      <c r="B27" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" s="2">
+        <v>10</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="G27" s="16"/>
       <c r="H27" s="5"/>
-      <c r="I27" s="5" t="s">
-        <v>82</v>
-      </c>
+      <c r="I27" s="5"/>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
       <c r="L27" s="13"/>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B28" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="G28" s="16"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="13"/>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B29" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D29" s="3" t="s">
+      <c r="B28" s="9"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="11"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="19"/>
+    </row>
+    <row r="29" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="16"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="13"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="13"/>
+    </row>
+    <row r="30" spans="2:12" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="B30" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="13"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="13"/>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B31" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G29" s="17"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="18"/>
-      <c r="L29" s="19"/>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B30" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="G30" s="9"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="11"/>
-    </row>
-    <row r="31" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="9"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="11"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="13"/>
       <c r="G31" s="16"/>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
@@ -3704,7 +3680,9 @@
       <c r="L31" s="13"/>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B32" s="16"/>
+      <c r="B32" s="15" t="s">
+        <v>44</v>
+      </c>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="13"/>
@@ -3715,10 +3693,8 @@
       <c r="K32" s="5"/>
       <c r="L32" s="13"/>
     </row>
-    <row r="33" spans="2:12" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B33" s="12" t="s">
-        <v>76</v>
-      </c>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B33" s="16"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
       <c r="E33" s="13"/>
@@ -3730,9 +3706,7 @@
       <c r="L33" s="13"/>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B34" s="14" t="s">
-        <v>45</v>
-      </c>
+      <c r="B34" s="16"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
       <c r="E34" s="13"/>
@@ -3744,9 +3718,7 @@
       <c r="L34" s="13"/>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B35" s="15" t="s">
-        <v>46</v>
-      </c>
+      <c r="B35" s="16"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="13"/>
@@ -3782,9 +3754,13 @@
       <c r="L37" s="13"/>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B38" s="16"/>
+      <c r="B38" s="16" t="s">
+        <v>49</v>
+      </c>
       <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
+      <c r="D38" s="5" t="s">
+        <v>50</v>
+      </c>
       <c r="E38" s="13"/>
       <c r="G38" s="16"/>
       <c r="H38" s="5"/>
@@ -3794,10 +3770,10 @@
       <c r="L38" s="13"/>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B39" s="16"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="13"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="19"/>
       <c r="G39" s="16"/>
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
@@ -3806,11 +3782,21 @@
       <c r="L39" s="13"/>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B40" s="16"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="13"/>
-      <c r="G40" s="16"/>
+      <c r="B40" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G40" s="16" t="s">
+        <v>78</v>
+      </c>
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
@@ -3818,15 +3804,21 @@
       <c r="L40" s="13"/>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B41" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E41" s="13"/>
-      <c r="G41" s="16"/>
+      <c r="B41" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D41" s="2">
+        <v>5</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G41" s="16" t="s">
+        <v>79</v>
+      </c>
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
       <c r="J41" s="5"/>
@@ -3834,80 +3826,46 @@
       <c r="L41" s="13"/>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B42" s="17"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="19"/>
-      <c r="G42" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
-      <c r="K42" s="5"/>
-      <c r="L42" s="13"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="11"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="18"/>
+      <c r="I42" s="18"/>
+      <c r="J42" s="18"/>
+      <c r="K42" s="18"/>
+      <c r="L42" s="19"/>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B43" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="G43" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5"/>
-      <c r="K43" s="5"/>
-      <c r="L43" s="13"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B44" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D44" s="3" t="s">
+      <c r="B43" s="16"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="13"/>
+    </row>
+    <row r="44" spans="2:12" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="B44" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="13"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B45" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="G44" s="17"/>
-      <c r="H44" s="18"/>
-      <c r="I44" s="18"/>
-      <c r="J44" s="18"/>
-      <c r="K44" s="18"/>
-      <c r="L44" s="19"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B45" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>87</v>
-      </c>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="13"/>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B46" s="9"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="11"/>
+      <c r="B46" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="13"/>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B47" s="16"/>
@@ -3915,26 +3873,20 @@
       <c r="D47" s="5"/>
       <c r="E47" s="13"/>
     </row>
-    <row r="48" spans="2:12" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B48" s="12" t="s">
-        <v>76</v>
-      </c>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B48" s="16"/>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
       <c r="E48" s="13"/>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B49" s="14" t="s">
-        <v>45</v>
-      </c>
+      <c r="B49" s="16"/>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
       <c r="E49" s="13"/>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B50" s="15" t="s">
-        <v>46</v>
-      </c>
+      <c r="B50" s="16"/>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
       <c r="E50" s="13"/>
@@ -3958,9 +3910,13 @@
       <c r="E53" s="13"/>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B54" s="16"/>
+      <c r="B54" s="16" t="s">
+        <v>53</v>
+      </c>
       <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
+      <c r="D54" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="E54" s="13"/>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.3">
@@ -3970,43 +3926,16 @@
       <c r="E55" s="13"/>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B56" s="16"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="13"/>
-    </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B57" s="16"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="13"/>
-    </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B58" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="C58" s="5"/>
-      <c r="D58" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E58" s="13"/>
-    </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B59" s="16"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="5"/>
-      <c r="E59" s="13"/>
-    </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B60" s="17"/>
-      <c r="C60" s="18"/>
-      <c r="D60" s="18"/>
-      <c r="E60" s="19"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="18"/>
+      <c r="E56" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4014,7 +3943,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J24"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -4032,7 +3961,7 @@
   <sheetData>
     <row r="2" spans="2:10" ht="31.5" x14ac:dyDescent="0.3">
       <c r="B2" s="24" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.3">
@@ -4043,17 +3972,17 @@
     <row r="5" spans="2:10" ht="10.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.3">
@@ -4069,24 +3998,24 @@
         <v>40</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="25" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="9"/>
@@ -4098,7 +4027,7 @@
     </row>
     <row r="15" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="15" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="13"/>
@@ -4111,7 +4040,7 @@
     </row>
     <row r="16" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="14" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="13"/>

--- a/Document/조작 시스템 문서_강동민.xlsx
+++ b/Document/조작 시스템 문서_강동민.xlsx
@@ -9,13 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="1" r:id="rId1"/>
     <sheet name="조작 시스템" sheetId="2" r:id="rId2"/>
     <sheet name="이동" sheetId="3" r:id="rId3"/>
     <sheet name="상호작용" sheetId="4" r:id="rId4"/>
+    <sheet name="카메라" sheetId="5" r:id="rId5"/>
+    <sheet name="동작중 예외처리" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="172">
   <si>
     <t xml:space="preserve">작성날짜 </t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -493,6 +495,247 @@
   </si>
   <si>
     <t>중력</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>왼쪽으로만 이동시 카메라 왼쪽이동</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>오른쪽으로만 이동시 카메라 오른쪽 이동</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 플레이어 카메라에 관한 문서</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>카메라</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 플레이어를 비추고 있는 카메라 조작을 설명하는 문서</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>카메라</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이 화면을 보여주는 카메라</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 카메라는 플레이어의 등뒤에서 비치는 백뷰 형태</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>예외처리</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>카메라 벽 충돌</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>카메라가 벽의 안쪽, 뒤쪽으로 이동하여 시야를 가릴때 처리</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>카메라 이동 처리</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>카메라가 오브젝트와 겹칠시 카메라 위치 이동처리하는 법</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>겹쳐 있는 오브젝트의 밖으로 나오고</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>오브젝트와 겹치게 되면</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>지정된 위치</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>중 가장 먼곳에 카메라 배치</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>오브젝트 사용</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>사다리</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>오브젝트 사용시 카메라의 위치 플레이어의 뒤로 바로이동</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>동작 예외처리</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 플레이어 조작 예외처리 문서</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 플레이어가 조작중 예외 해야하는 상황과 그 반응에 대한 설명 문서</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>카메라 이동 범위</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>카메라의 위,아래 범위에 대한 처리</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>한계치</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>아래로 이동 할때끝지점 까지 이동된다면</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터의 머리위로 카메라 이동</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>카메라의 위로 이동은 한계점 까지 이동하고</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>시점에 캐릭터의 머리에 고정</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>동작</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어가 캐릭터를 움직일때 나오는 동작들</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>점프</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터의 점프 상태 처리</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어는  2단 점프까지 사용가능</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2단 점프는 대기, 뒤로이동, 이동 상태일때 사용가능합니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>대쉬</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터의 대쉬 상태중 처리</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>대쉬중 점프는 한번만 가능(바로 2단계 사용)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>대쉬는 한번만 사용가능하고 땅에 착지시 초기화</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>카메라 예외처리 추가</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.04.07</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>동작 예외처리 추가</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>점프중 오브젝트 충돌</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">일반오브젝트는 충돌시 미끄러지고 매달리기, 사디리 오브젝트의 경우 매달림 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>대쉬중 오브젝트 충돌시 모든 오브젝트 반응 없음</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>단 2단 점프시작시 인식이 안되는 0.5초 텀을 줄것</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>점프를 사용시 대쉬상태가 아닌 점프상태가 되어 충돌시 오브젝트 사용가능</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>대쉬중 점프는 한번만 사용가능[바로 2단계]하며 땅에 착지시 초기화</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>뒤로 이동</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터가 뒤로이동 상태중 처리</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>뒤로 이동 상태에서는 오브젝트와 상호작용 불가</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -500,7 +743,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -599,8 +842,49 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="7"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -618,8 +902,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -748,6 +1038,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -757,7 +1095,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -836,6 +1174,78 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="강조색3" xfId="1" builtinId="37"/>
@@ -2691,6 +3101,4904 @@
           <a:solidFill>
             <a:srgbClr val="FF0000"/>
           </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>3760304</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>197125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>6084818</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>240195</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="직사각형 31"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17484587" y="8289234"/>
+          <a:ext cx="2324514" cy="1616765"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3848100</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="직사각형 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5505450" y="9201150"/>
+          <a:ext cx="1352550" cy="885825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2924175</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="직사각형 21"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4581525" y="8305800"/>
+          <a:ext cx="2266950" cy="885825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1790700</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2457450</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="직사각형 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3381375" y="5238750"/>
+          <a:ext cx="666750" cy="1019175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1685925</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="직사각형 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="619126" y="3876675"/>
+          <a:ext cx="2657474" cy="2981325"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 1304925"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 2914650"/>
+            <a:gd name="connsiteX1" fmla="*/ 1304925 w 1304925"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 2914650"/>
+            <a:gd name="connsiteX2" fmla="*/ 1304925 w 1304925"/>
+            <a:gd name="connsiteY2" fmla="*/ 2914650 h 2914650"/>
+            <a:gd name="connsiteX3" fmla="*/ 0 w 1304925"/>
+            <a:gd name="connsiteY3" fmla="*/ 2914650 h 2914650"/>
+            <a:gd name="connsiteX4" fmla="*/ 0 w 1304925"/>
+            <a:gd name="connsiteY4" fmla="*/ 0 h 2914650"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 2724150"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 2914650"/>
+            <a:gd name="connsiteX1" fmla="*/ 1304925 w 2724150"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 2914650"/>
+            <a:gd name="connsiteX2" fmla="*/ 2724150 w 2724150"/>
+            <a:gd name="connsiteY2" fmla="*/ 800100 h 2914650"/>
+            <a:gd name="connsiteX3" fmla="*/ 0 w 2724150"/>
+            <a:gd name="connsiteY3" fmla="*/ 2914650 h 2914650"/>
+            <a:gd name="connsiteX4" fmla="*/ 0 w 2724150"/>
+            <a:gd name="connsiteY4" fmla="*/ 0 h 2914650"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 2724150"/>
+            <a:gd name="connsiteY0" fmla="*/ 66675 h 2981325"/>
+            <a:gd name="connsiteX1" fmla="*/ 2724150 w 2724150"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 2981325"/>
+            <a:gd name="connsiteX2" fmla="*/ 2724150 w 2724150"/>
+            <a:gd name="connsiteY2" fmla="*/ 866775 h 2981325"/>
+            <a:gd name="connsiteX3" fmla="*/ 0 w 2724150"/>
+            <a:gd name="connsiteY3" fmla="*/ 2981325 h 2981325"/>
+            <a:gd name="connsiteX4" fmla="*/ 0 w 2724150"/>
+            <a:gd name="connsiteY4" fmla="*/ 66675 h 2981325"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX4" y="connsiteY4"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="2724150" h="2981325">
+              <a:moveTo>
+                <a:pt x="0" y="66675"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="2724150" y="0"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="2724150" y="866775"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="2981325"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="66675"/>
+              </a:lnTo>
+              <a:close/>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2524125</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="직사각형 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4114800" y="3867150"/>
+          <a:ext cx="2667000" cy="2981325"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 1304925"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 2914650"/>
+            <a:gd name="connsiteX1" fmla="*/ 1304925 w 1304925"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 2914650"/>
+            <a:gd name="connsiteX2" fmla="*/ 1304925 w 1304925"/>
+            <a:gd name="connsiteY2" fmla="*/ 2914650 h 2914650"/>
+            <a:gd name="connsiteX3" fmla="*/ 0 w 1304925"/>
+            <a:gd name="connsiteY3" fmla="*/ 2914650 h 2914650"/>
+            <a:gd name="connsiteX4" fmla="*/ 0 w 1304925"/>
+            <a:gd name="connsiteY4" fmla="*/ 0 h 2914650"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 2724150"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 2914650"/>
+            <a:gd name="connsiteX1" fmla="*/ 1304925 w 2724150"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 2914650"/>
+            <a:gd name="connsiteX2" fmla="*/ 2724150 w 2724150"/>
+            <a:gd name="connsiteY2" fmla="*/ 800100 h 2914650"/>
+            <a:gd name="connsiteX3" fmla="*/ 0 w 2724150"/>
+            <a:gd name="connsiteY3" fmla="*/ 2914650 h 2914650"/>
+            <a:gd name="connsiteX4" fmla="*/ 0 w 2724150"/>
+            <a:gd name="connsiteY4" fmla="*/ 0 h 2914650"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 2724150"/>
+            <a:gd name="connsiteY0" fmla="*/ 66675 h 2981325"/>
+            <a:gd name="connsiteX1" fmla="*/ 2724150 w 2724150"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 2981325"/>
+            <a:gd name="connsiteX2" fmla="*/ 2724150 w 2724150"/>
+            <a:gd name="connsiteY2" fmla="*/ 866775 h 2981325"/>
+            <a:gd name="connsiteX3" fmla="*/ 0 w 2724150"/>
+            <a:gd name="connsiteY3" fmla="*/ 2981325 h 2981325"/>
+            <a:gd name="connsiteX4" fmla="*/ 0 w 2724150"/>
+            <a:gd name="connsiteY4" fmla="*/ 66675 h 2981325"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX4" y="connsiteY4"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="2724150" h="2981325">
+              <a:moveTo>
+                <a:pt x="0" y="66675"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="2724150" y="0"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="2724150" y="866775"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="2981325"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="66675"/>
+              </a:lnTo>
+              <a:close/>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1343025</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2009775</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="직사각형 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9763125" y="5543550"/>
+          <a:ext cx="666750" cy="1019175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>238126</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>600076</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="순서도: 직접 액세스 저장소 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10200928">
+          <a:off x="12258676" y="4562475"/>
+          <a:ext cx="1047750" cy="542925"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDrum">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>439888</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>251093</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>448647</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>295920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="이등변 삼각형 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="4696253">
+          <a:off x="9113416" y="3093290"/>
+          <a:ext cx="2159377" cy="4552184"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1774962</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>259408</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2315625</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>257175</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="직사각형 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3432312" y="10489258"/>
+          <a:ext cx="540663" cy="826442"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3884312</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>16310</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>180339</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="순서도: 직접 액세스 저장소 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="9986775">
+          <a:off x="5541662" y="9417485"/>
+          <a:ext cx="849613" cy="440254"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDrum">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>382739</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>71338</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4074073</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>165012</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="이등변 삼각형 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="4696253">
+          <a:off x="3010244" y="8226133"/>
+          <a:ext cx="1751024" cy="3691334"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="81" name="직사각형 80"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12115800" y="9201150"/>
+          <a:ext cx="1352550" cy="885825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2705100</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="82" name="직사각형 81"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11191875" y="8305800"/>
+          <a:ext cx="2266950" cy="885825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1555887</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>259408</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2096550</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>257175</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="83" name="직사각형 82"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10042662" y="10489258"/>
+          <a:ext cx="540663" cy="826442"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>36212</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>111561</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>275590</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="84" name="순서도: 직접 액세스 저장소 83"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10156993">
+          <a:off x="11437637" y="9788961"/>
+          <a:ext cx="849613" cy="440254"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDrum">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>192302</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>69430</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>50633</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>163104</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="85" name="이등변 삼각형 84"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="4696253">
+          <a:off x="9190056" y="8959626"/>
+          <a:ext cx="1751024" cy="2772981"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 51576"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3400425</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4191000</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="89" name="직사각형 88"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5057775" y="12211050"/>
+          <a:ext cx="790575" cy="885825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2924175</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="90" name="직사각형 89"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4581525" y="8305800"/>
+          <a:ext cx="2266950" cy="885825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1774962</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>259408</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2315625</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>257175</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="91" name="직사각형 90"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3432312" y="10489258"/>
+          <a:ext cx="540663" cy="826442"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3884312</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>16310</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>180339</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="92" name="순서도: 직접 액세스 저장소 91"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="9986775">
+          <a:off x="5541662" y="9417485"/>
+          <a:ext cx="849613" cy="440254"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDrum">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>382739</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>71338</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4074073</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>165012</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="93" name="이등변 삼각형 92"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="4696253">
+          <a:off x="3010244" y="8226133"/>
+          <a:ext cx="1751024" cy="3691334"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>322048</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="99" name="직사각형 98"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11723473" y="12211050"/>
+          <a:ext cx="792377" cy="885825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2693773</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>674473</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="100" name="직사각형 99"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11180548" y="11344275"/>
+          <a:ext cx="2266950" cy="885825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1268335</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>259408</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1808998</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>257175</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="101" name="직사각형 100"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9755110" y="13632508"/>
+          <a:ext cx="540663" cy="826442"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2634735</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>44886</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>569698</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>208915</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="102" name="순서도: 직접 액세스 저장소 101"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10156993">
+          <a:off x="11121510" y="12760761"/>
+          <a:ext cx="849613" cy="440254"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDrum">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>938704</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>249036</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2756811</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>15424</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="103" name="이등변 삼각형 102"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="4501498">
+          <a:off x="9151176" y="12020014"/>
+          <a:ext cx="1423738" cy="2761082"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 51576"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1159565</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>240196</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1700228</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>237963</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="직사각형 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14883848" y="10452653"/>
+          <a:ext cx="540663" cy="817745"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>4322875</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>48612</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>5174145</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>212641</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="순서도: 직접 액세스 저장소 28"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="9642254">
+          <a:off x="18047158" y="9167764"/>
+          <a:ext cx="851270" cy="437355"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDrum">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1408043</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>240196</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>4803913</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>157369</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="직선 연결선 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="15132326" y="9359348"/>
+          <a:ext cx="3395870" cy="1283804"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>3760304</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>197125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>6084818</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>240195</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="직사각형 32"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17484587" y="8289234"/>
+          <a:ext cx="2324514" cy="1616765"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1159565</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>240196</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1700228</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>237963</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="직사각형 33"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14883848" y="10452653"/>
+          <a:ext cx="540663" cy="817745"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>2981093</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>239112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>3832363</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>129815</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="순서도: 직접 액세스 저장소 34"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="9642254">
+          <a:off x="16705376" y="12745851"/>
+          <a:ext cx="851270" cy="437355"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDrum">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1408044</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>4787347</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>157369</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="직선 연결선 35"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="15132327" y="12423913"/>
+          <a:ext cx="3379303" cy="1333499"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3848100</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="직사각형 38"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5505450" y="9201150"/>
+          <a:ext cx="1352550" cy="885825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2924175</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="직사각형 39"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4581525" y="15192375"/>
+          <a:ext cx="2266950" cy="885825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>841512</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>97483</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1382175</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="직사각형 40"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2498862" y="16937683"/>
+          <a:ext cx="540663" cy="826442"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3046113</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>206810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3895726</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>94614</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="순서도: 직접 액세스 저장소 41"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="9986775">
+          <a:off x="4703463" y="16494560"/>
+          <a:ext cx="849613" cy="440254"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDrum">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>390629</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>148148</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3247103</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>249954</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="이등변 삼각형 42"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="4696253">
+          <a:off x="2596638" y="15611014"/>
+          <a:ext cx="1759156" cy="2856474"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 50822"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="직사각형 44"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1657350" y="15287625"/>
+          <a:ext cx="581025" cy="2943225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>828675</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="직사각형 45"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2247900" y="15735300"/>
+          <a:ext cx="238125" cy="2505075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1435378</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>132107</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="직선 연결선 43"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9922153" y="12706350"/>
+          <a:ext cx="2812772" cy="1075082"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1883053</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>132107</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="직선 연결선 46"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3540403" y="12706350"/>
+          <a:ext cx="2812772" cy="1075082"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1774962</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>259408</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2315625</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>257175</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="직사각형 49"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3432312" y="10489258"/>
+          <a:ext cx="540663" cy="826442"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3884312</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>16310</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>180339</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="순서도: 직접 액세스 저장소 50"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="9986775">
+          <a:off x="5541662" y="9417485"/>
+          <a:ext cx="849613" cy="440254"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDrum">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>382739</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>71338</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4074073</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>165012</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="이등변 삼각형 51"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="4696253">
+          <a:off x="3010244" y="8226133"/>
+          <a:ext cx="1751024" cy="3691334"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1971674</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>419099</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>209551</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="이등변 삼각형 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3771899" y="18954750"/>
+          <a:ext cx="2924175" cy="2409826"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 48371"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1774962</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>259408</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2315625</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>257175</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="직사각형 56"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3575187" y="21138208"/>
+          <a:ext cx="540663" cy="826442"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4312937</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>187761</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>27940</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="순서도: 직접 액세스 저장소 57"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="6113162" y="24495561"/>
+          <a:ext cx="849613" cy="487879"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDrum">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>658964</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>109438</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4350298</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>203112</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="이등변 삼각형 58"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="3286469" y="22942258"/>
+          <a:ext cx="2036774" cy="3691334"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1971674</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>419099</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>209551</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="이등변 삼각형 59"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3771899" y="22526625"/>
+          <a:ext cx="2924175" cy="2314576"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 48371"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>241437</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>230833</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>782100</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="직사각형 64"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8871087" y="24538633"/>
+          <a:ext cx="540663" cy="969317"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2855612</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>292536</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>132715</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="순서도: 직접 액세스 저장소 65"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="12193304">
+          <a:off x="11485262" y="24600336"/>
+          <a:ext cx="849613" cy="487879"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDrum">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>325587</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>109440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>159296</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>203114</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="이등변 삼각형 66"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="6473088">
+          <a:off x="8839542" y="22294560"/>
+          <a:ext cx="2036774" cy="3691334"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>438149</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>447674</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="이등변 삼각형 67"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9067799" y="22612350"/>
+          <a:ext cx="2924175" cy="2200276"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 48371"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1774962</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>259408</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2315625</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>257175</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="직사각형 68"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3575187" y="24567208"/>
+          <a:ext cx="540663" cy="969317"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3103154</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>25944</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3591033</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>227857</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="순서도: 직접 액세스 저장소 69"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="8094057">
+          <a:off x="4722512" y="26457711"/>
+          <a:ext cx="849613" cy="487879"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDrum">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>962369</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>120359</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2999143</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>249343</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="71" name="이등변 삼각형 70"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="2533620">
+          <a:off x="2762594" y="26371259"/>
+          <a:ext cx="2036774" cy="3691334"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1971674</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>257175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>419099</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>209551</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="72" name="이등변 삼각형 71"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3771899" y="26508075"/>
+          <a:ext cx="2924175" cy="2219326"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 48371"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1790700</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2457450</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="직사각형 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3448050" y="5238750"/>
+          <a:ext cx="666750" cy="1019175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1685925</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="직사각형 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="619126" y="3876675"/>
+          <a:ext cx="2724149" cy="2981325"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 1304925"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 2914650"/>
+            <a:gd name="connsiteX1" fmla="*/ 1304925 w 1304925"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 2914650"/>
+            <a:gd name="connsiteX2" fmla="*/ 1304925 w 1304925"/>
+            <a:gd name="connsiteY2" fmla="*/ 2914650 h 2914650"/>
+            <a:gd name="connsiteX3" fmla="*/ 0 w 1304925"/>
+            <a:gd name="connsiteY3" fmla="*/ 2914650 h 2914650"/>
+            <a:gd name="connsiteX4" fmla="*/ 0 w 1304925"/>
+            <a:gd name="connsiteY4" fmla="*/ 0 h 2914650"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 2724150"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 2914650"/>
+            <a:gd name="connsiteX1" fmla="*/ 1304925 w 2724150"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 2914650"/>
+            <a:gd name="connsiteX2" fmla="*/ 2724150 w 2724150"/>
+            <a:gd name="connsiteY2" fmla="*/ 800100 h 2914650"/>
+            <a:gd name="connsiteX3" fmla="*/ 0 w 2724150"/>
+            <a:gd name="connsiteY3" fmla="*/ 2914650 h 2914650"/>
+            <a:gd name="connsiteX4" fmla="*/ 0 w 2724150"/>
+            <a:gd name="connsiteY4" fmla="*/ 0 h 2914650"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 2724150"/>
+            <a:gd name="connsiteY0" fmla="*/ 66675 h 2981325"/>
+            <a:gd name="connsiteX1" fmla="*/ 2724150 w 2724150"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 2981325"/>
+            <a:gd name="connsiteX2" fmla="*/ 2724150 w 2724150"/>
+            <a:gd name="connsiteY2" fmla="*/ 866775 h 2981325"/>
+            <a:gd name="connsiteX3" fmla="*/ 0 w 2724150"/>
+            <a:gd name="connsiteY3" fmla="*/ 2981325 h 2981325"/>
+            <a:gd name="connsiteX4" fmla="*/ 0 w 2724150"/>
+            <a:gd name="connsiteY4" fmla="*/ 66675 h 2981325"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX4" y="connsiteY4"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="2724150" h="2981325">
+              <a:moveTo>
+                <a:pt x="0" y="66675"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="2724150" y="0"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="2724150" y="866775"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="2981325"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="66675"/>
+              </a:lnTo>
+              <a:close/>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2524125</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="직사각형 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4181475" y="3867150"/>
+          <a:ext cx="2667000" cy="2981325"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 1304925"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 2914650"/>
+            <a:gd name="connsiteX1" fmla="*/ 1304925 w 1304925"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 2914650"/>
+            <a:gd name="connsiteX2" fmla="*/ 1304925 w 1304925"/>
+            <a:gd name="connsiteY2" fmla="*/ 2914650 h 2914650"/>
+            <a:gd name="connsiteX3" fmla="*/ 0 w 1304925"/>
+            <a:gd name="connsiteY3" fmla="*/ 2914650 h 2914650"/>
+            <a:gd name="connsiteX4" fmla="*/ 0 w 1304925"/>
+            <a:gd name="connsiteY4" fmla="*/ 0 h 2914650"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 2724150"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 2914650"/>
+            <a:gd name="connsiteX1" fmla="*/ 1304925 w 2724150"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 2914650"/>
+            <a:gd name="connsiteX2" fmla="*/ 2724150 w 2724150"/>
+            <a:gd name="connsiteY2" fmla="*/ 800100 h 2914650"/>
+            <a:gd name="connsiteX3" fmla="*/ 0 w 2724150"/>
+            <a:gd name="connsiteY3" fmla="*/ 2914650 h 2914650"/>
+            <a:gd name="connsiteX4" fmla="*/ 0 w 2724150"/>
+            <a:gd name="connsiteY4" fmla="*/ 0 h 2914650"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 2724150"/>
+            <a:gd name="connsiteY0" fmla="*/ 66675 h 2981325"/>
+            <a:gd name="connsiteX1" fmla="*/ 2724150 w 2724150"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 2981325"/>
+            <a:gd name="connsiteX2" fmla="*/ 2724150 w 2724150"/>
+            <a:gd name="connsiteY2" fmla="*/ 866775 h 2981325"/>
+            <a:gd name="connsiteX3" fmla="*/ 0 w 2724150"/>
+            <a:gd name="connsiteY3" fmla="*/ 2981325 h 2981325"/>
+            <a:gd name="connsiteX4" fmla="*/ 0 w 2724150"/>
+            <a:gd name="connsiteY4" fmla="*/ 66675 h 2981325"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX4" y="connsiteY4"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="2724150" h="2981325">
+              <a:moveTo>
+                <a:pt x="0" y="66675"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="2724150" y="0"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="2724150" y="866775"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="2981325"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="66675"/>
+              </a:lnTo>
+              <a:close/>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1743075</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2409825</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="직사각형 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3400425" y="10125075"/>
+          <a:ext cx="666750" cy="1019175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1438275</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1438275</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="직선 화살표 연결선 8"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3095625" y="9610725"/>
+          <a:ext cx="0" cy="714375"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1609726</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>254353</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="직사각형 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2143125" y="10391775"/>
+          <a:ext cx="1123951" cy="368653"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1800"/>
+            <a:t>SPACE</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3105150</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3771900</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="직사각형 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4762500" y="13773150"/>
+          <a:ext cx="666750" cy="1019175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1000125</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>257176</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2781300</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="직선 화살표 연결선 12"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2657475" y="14458951"/>
+          <a:ext cx="1781175" cy="19049"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1381125</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2505076</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>121003</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="직사각형 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3038475" y="13954125"/>
+          <a:ext cx="1123951" cy="368653"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1800"/>
+            <a:t>SHIFT</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="직사각형 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="619125" y="11201400"/>
+          <a:ext cx="12611100" cy="123825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>619124</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>276224</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="직사각형 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="619124" y="14887574"/>
+          <a:ext cx="12601575" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2524125</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3190875</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="직사각형 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9639300" y="13115925"/>
+          <a:ext cx="666750" cy="1019175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1876425</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2343151</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>219076</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="직선 화살표 연결선 21"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="8991600" y="12963525"/>
+          <a:ext cx="466726" cy="904876"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1209675</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2333626</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>6703</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="직사각형 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8324850" y="13563600"/>
+          <a:ext cx="1123951" cy="368653"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1800"/>
+            <a:t>SPACE</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2190750</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2857500</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="직사각형 24"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9305925" y="9677400"/>
+          <a:ext cx="666750" cy="1019175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2019300</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2962275</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>266701</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="직선 화살표 연결선 25"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="9134475" y="9201150"/>
+          <a:ext cx="942975" cy="466726"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1724025</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2028825</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="직사각형 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8839200" y="9115425"/>
+          <a:ext cx="304800" cy="2085975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2847975</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3514725</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="직사각형 28"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4505325" y="16087725"/>
+          <a:ext cx="666750" cy="1019175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>990600</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>266701</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2771775</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="직선 화살표 연결선 29"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2647950" y="16954501"/>
+          <a:ext cx="1781175" cy="19049"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>857250</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="직사각형 30"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2209800" y="15887700"/>
+          <a:ext cx="304800" cy="2085975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>276224</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="직사각형 31"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="628649" y="17926049"/>
+          <a:ext cx="12601575" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2562225</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3228975</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="직사각형 32"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9677400" y="16249650"/>
+          <a:ext cx="666750" cy="1019175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1905000</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>257175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2209800</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="직사각형 33"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9020175" y="15840075"/>
+          <a:ext cx="304800" cy="2085975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2266950</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3209925</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="직선 화살표 연결선 34"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="9382125" y="15687675"/>
+          <a:ext cx="942975" cy="466726"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2581275</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3248025</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="직사각형 35"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4238625" y="20716875"/>
+          <a:ext cx="666750" cy="1171575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2486025</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="직선 화살표 연결선 36"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2362200" y="21621751"/>
+          <a:ext cx="1781175" cy="57149"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2979,7 +8287,7 @@
   <dimension ref="B2:E11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3068,14 +8376,24 @@
       <c r="B8" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>160</v>
+      </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>162</v>
+      </c>
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
@@ -3101,7 +8419,7 @@
   <dimension ref="B2:F24"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3166,7 +8484,12 @@
       <c r="C6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="21"/>
+      <c r="E6" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
@@ -3174,6 +8497,12 @@
       </c>
       <c r="C7" s="3" t="s">
         <v>24</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
@@ -3305,8 +8634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L56"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J46" sqref="J46"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3943,8 +9272,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J24"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4145,4 +9474,1514 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:L158"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="B94" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D111" sqref="D111"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.125" customWidth="1"/>
+    <col min="2" max="2" width="15.5" customWidth="1"/>
+    <col min="3" max="3" width="58.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" customWidth="1"/>
+    <col min="6" max="6" width="12.375" customWidth="1"/>
+    <col min="7" max="7" width="38.25" customWidth="1"/>
+    <col min="11" max="11" width="3.375" customWidth="1"/>
+    <col min="12" max="12" width="79.875" customWidth="1"/>
+    <col min="14" max="14" width="54.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10" ht="31.5" x14ac:dyDescent="0.3">
+      <c r="B2" s="24" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B4" s="23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="10.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B10" s="23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B12" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="11"/>
+    </row>
+    <row r="15" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="13"/>
+    </row>
+    <row r="16" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="16"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="13"/>
+    </row>
+    <row r="17" spans="2:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="16"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="13"/>
+    </row>
+    <row r="18" spans="2:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="16"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="13"/>
+    </row>
+    <row r="19" spans="2:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="16"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="13"/>
+    </row>
+    <row r="20" spans="2:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="16"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="13"/>
+    </row>
+    <row r="21" spans="2:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="16"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="13"/>
+    </row>
+    <row r="22" spans="2:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="16"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="13"/>
+    </row>
+    <row r="23" spans="2:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="16"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="13"/>
+    </row>
+    <row r="24" spans="2:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="17"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="19"/>
+    </row>
+    <row r="27" spans="2:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="28" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B29" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="L29" s="37" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B30" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="L30" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="C31" s="5"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="41"/>
+      <c r="J31" s="42"/>
+      <c r="L31" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="C32" s="5"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="45"/>
+      <c r="L32" s="35"/>
+    </row>
+    <row r="33" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="29"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="44"/>
+      <c r="I33" s="44"/>
+      <c r="J33" s="45"/>
+      <c r="L33" s="35"/>
+    </row>
+    <row r="34" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="16"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="44"/>
+      <c r="J34" s="45"/>
+      <c r="L34" s="35"/>
+    </row>
+    <row r="35" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="16"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="44"/>
+      <c r="H35" s="44"/>
+      <c r="I35" s="44"/>
+      <c r="J35" s="45"/>
+      <c r="L35" s="35"/>
+    </row>
+    <row r="36" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="16"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="44"/>
+      <c r="H36" s="44"/>
+      <c r="I36" s="44"/>
+      <c r="J36" s="45"/>
+      <c r="L36" s="35"/>
+    </row>
+    <row r="37" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="16"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="44"/>
+      <c r="G37" s="44"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="44"/>
+      <c r="J37" s="45"/>
+      <c r="L37" s="35"/>
+    </row>
+    <row r="38" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="16"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="44"/>
+      <c r="G38" s="44"/>
+      <c r="H38" s="44"/>
+      <c r="I38" s="44"/>
+      <c r="J38" s="45"/>
+      <c r="L38" s="35"/>
+    </row>
+    <row r="39" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="16"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="44"/>
+      <c r="G39" s="44"/>
+      <c r="H39" s="44"/>
+      <c r="I39" s="44"/>
+      <c r="J39" s="45"/>
+      <c r="L39" s="35"/>
+    </row>
+    <row r="40" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="16"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="44"/>
+      <c r="G40" s="44"/>
+      <c r="H40" s="44"/>
+      <c r="I40" s="44"/>
+      <c r="J40" s="45"/>
+      <c r="L40" s="35"/>
+    </row>
+    <row r="41" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="17"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="46"/>
+      <c r="F41" s="47"/>
+      <c r="G41" s="47"/>
+      <c r="H41" s="47"/>
+      <c r="I41" s="47"/>
+      <c r="J41" s="48"/>
+      <c r="L41" s="36"/>
+    </row>
+    <row r="42" spans="2:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="20"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="33"/>
+      <c r="G42" s="33"/>
+      <c r="H42" s="33"/>
+      <c r="I42" s="33"/>
+      <c r="J42" s="34"/>
+    </row>
+    <row r="43" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="C43" s="5"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="13"/>
+      <c r="L43" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="C44" s="5"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="13"/>
+      <c r="L44" s="38" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="29"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="13"/>
+      <c r="L45" s="35"/>
+    </row>
+    <row r="46" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="16"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="13"/>
+      <c r="L46" s="35"/>
+    </row>
+    <row r="47" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="16"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="13"/>
+      <c r="L47" s="35"/>
+    </row>
+    <row r="48" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="16"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="13"/>
+      <c r="L48" s="35"/>
+    </row>
+    <row r="49" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="16"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="13"/>
+      <c r="L49" s="35"/>
+    </row>
+    <row r="50" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="16"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="13"/>
+      <c r="L50" s="35"/>
+    </row>
+    <row r="51" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="16"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="13"/>
+      <c r="L51" s="35"/>
+    </row>
+    <row r="52" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="16"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="13"/>
+      <c r="L52" s="35"/>
+    </row>
+    <row r="53" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="17"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="18"/>
+      <c r="G53" s="18"/>
+      <c r="H53" s="18"/>
+      <c r="I53" s="18"/>
+      <c r="J53" s="19"/>
+      <c r="L53" s="36"/>
+    </row>
+    <row r="54" spans="2:12" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="20"/>
+      <c r="C54" s="30"/>
+      <c r="D54" s="30"/>
+      <c r="E54" s="30"/>
+      <c r="F54" s="30"/>
+      <c r="G54" s="30"/>
+      <c r="H54" s="30"/>
+      <c r="I54" s="30"/>
+      <c r="J54" s="31"/>
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="56" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D56" s="3"/>
+    </row>
+    <row r="57" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="C57" s="5"/>
+      <c r="D57" s="13"/>
+    </row>
+    <row r="58" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="C58" s="5"/>
+      <c r="D58" s="13"/>
+    </row>
+    <row r="59" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="C59" s="5"/>
+      <c r="D59" s="13"/>
+    </row>
+    <row r="60" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="16"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="13"/>
+    </row>
+    <row r="61" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="16"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="13"/>
+    </row>
+    <row r="62" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="16"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="13"/>
+    </row>
+    <row r="63" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="16"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="13"/>
+    </row>
+    <row r="64" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="16"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="13"/>
+    </row>
+    <row r="65" spans="2:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="16"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="13"/>
+    </row>
+    <row r="66" spans="2:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="16"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="13"/>
+    </row>
+    <row r="67" spans="2:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="17"/>
+      <c r="C67" s="18"/>
+      <c r="D67" s="19"/>
+    </row>
+    <row r="68" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="69" spans="2:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D70" s="3"/>
+    </row>
+    <row r="71" spans="2:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="C71" s="5"/>
+      <c r="D71" s="13"/>
+    </row>
+    <row r="72" spans="2:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="C72" s="5"/>
+      <c r="D72" s="13"/>
+    </row>
+    <row r="73" spans="2:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="C73" s="5"/>
+      <c r="D73" s="13"/>
+    </row>
+    <row r="74" spans="2:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="16"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="13"/>
+    </row>
+    <row r="75" spans="2:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="16"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="13"/>
+    </row>
+    <row r="76" spans="2:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="16"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="13"/>
+    </row>
+    <row r="77" spans="2:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="16"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="13"/>
+    </row>
+    <row r="78" spans="2:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="16"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="13"/>
+    </row>
+    <row r="79" spans="2:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="16"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="13"/>
+    </row>
+    <row r="80" spans="2:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="16"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="13"/>
+    </row>
+    <row r="81" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="17"/>
+      <c r="C81" s="18"/>
+      <c r="D81" s="19"/>
+    </row>
+    <row r="82" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="83" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="49" t="s">
+        <v>108</v>
+      </c>
+      <c r="C83" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="D83" s="11"/>
+      <c r="E83" s="9"/>
+      <c r="F83" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="G83" s="10"/>
+      <c r="H83" s="10"/>
+      <c r="I83" s="11"/>
+    </row>
+    <row r="84" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B84" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="C84" s="5"/>
+      <c r="D84" s="13"/>
+      <c r="E84" s="16"/>
+      <c r="F84" s="5"/>
+      <c r="G84" s="5"/>
+      <c r="H84" s="5"/>
+      <c r="I84" s="13"/>
+    </row>
+    <row r="85" spans="2:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B85" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="C85" s="5"/>
+      <c r="D85" s="13"/>
+      <c r="E85" s="16"/>
+      <c r="F85" s="5"/>
+      <c r="G85" s="5"/>
+      <c r="H85" s="5"/>
+      <c r="I85" s="13"/>
+    </row>
+    <row r="86" spans="2:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="16"/>
+      <c r="C86" s="5"/>
+      <c r="D86" s="13"/>
+      <c r="E86" s="16"/>
+      <c r="F86" s="5"/>
+      <c r="G86" s="5"/>
+      <c r="H86" s="5"/>
+      <c r="I86" s="13"/>
+    </row>
+    <row r="87" spans="2:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B87" s="16"/>
+      <c r="C87" s="5"/>
+      <c r="D87" s="13"/>
+      <c r="E87" s="16"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="5"/>
+      <c r="H87" s="5"/>
+      <c r="I87" s="13"/>
+    </row>
+    <row r="88" spans="2:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B88" s="16"/>
+      <c r="C88" s="5"/>
+      <c r="D88" s="13"/>
+      <c r="E88" s="16"/>
+      <c r="F88" s="5"/>
+      <c r="G88" s="5"/>
+      <c r="H88" s="5"/>
+      <c r="I88" s="13"/>
+    </row>
+    <row r="89" spans="2:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B89" s="16"/>
+      <c r="C89" s="5"/>
+      <c r="D89" s="13"/>
+      <c r="E89" s="16"/>
+      <c r="F89" s="5"/>
+      <c r="G89" s="5"/>
+      <c r="H89" s="5"/>
+      <c r="I89" s="13"/>
+    </row>
+    <row r="90" spans="2:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B90" s="16"/>
+      <c r="C90" s="5"/>
+      <c r="D90" s="13"/>
+      <c r="E90" s="16"/>
+      <c r="F90" s="5"/>
+      <c r="G90" s="5"/>
+      <c r="H90" s="5"/>
+      <c r="I90" s="13"/>
+    </row>
+    <row r="91" spans="2:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B91" s="16"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="13"/>
+      <c r="E91" s="16"/>
+      <c r="F91" s="5"/>
+      <c r="G91" s="5"/>
+      <c r="H91" s="5"/>
+      <c r="I91" s="13"/>
+    </row>
+    <row r="92" spans="2:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B92" s="16"/>
+      <c r="C92" s="5"/>
+      <c r="D92" s="13"/>
+      <c r="E92" s="16"/>
+      <c r="F92" s="5"/>
+      <c r="G92" s="5"/>
+      <c r="H92" s="5"/>
+      <c r="I92" s="13"/>
+    </row>
+    <row r="93" spans="2:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B93" s="17"/>
+      <c r="C93" s="18"/>
+      <c r="D93" s="19"/>
+      <c r="E93" s="17"/>
+      <c r="F93" s="18"/>
+      <c r="G93" s="18"/>
+      <c r="H93" s="18"/>
+      <c r="I93" s="19"/>
+    </row>
+    <row r="94" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="95" spans="2:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B95" s="49" t="s">
+        <v>108</v>
+      </c>
+      <c r="C95" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="D95" s="11"/>
+    </row>
+    <row r="96" spans="2:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B96" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D96" s="13"/>
+    </row>
+    <row r="97" spans="2:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B97" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="C97" s="5"/>
+      <c r="D97" s="13"/>
+    </row>
+    <row r="98" spans="2:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B98" s="16"/>
+      <c r="C98" s="5"/>
+      <c r="D98" s="13"/>
+    </row>
+    <row r="99" spans="2:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B99" s="16"/>
+      <c r="C99" s="5"/>
+      <c r="D99" s="13"/>
+    </row>
+    <row r="100" spans="2:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B100" s="16"/>
+      <c r="C100" s="5"/>
+      <c r="D100" s="13"/>
+    </row>
+    <row r="101" spans="2:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B101" s="16"/>
+      <c r="C101" s="5"/>
+      <c r="D101" s="13"/>
+    </row>
+    <row r="102" spans="2:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B102" s="16"/>
+      <c r="C102" s="5"/>
+      <c r="D102" s="13"/>
+    </row>
+    <row r="103" spans="2:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B103" s="16"/>
+      <c r="C103" s="5"/>
+      <c r="D103" s="13"/>
+    </row>
+    <row r="104" spans="2:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B104" s="16"/>
+      <c r="C104" s="5"/>
+      <c r="D104" s="13"/>
+    </row>
+    <row r="105" spans="2:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B105" s="17"/>
+      <c r="C105" s="18"/>
+      <c r="D105" s="19"/>
+    </row>
+    <row r="106" spans="2:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="107" spans="2:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="108" spans="2:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="109" spans="2:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="110" spans="2:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="111" spans="2:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="112" spans="2:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="113" ht="25.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="114" ht="25.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="115" ht="25.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="116" ht="25.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="117" ht="25.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="118" ht="25.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="119" ht="25.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="120" ht="25.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="121" ht="25.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="122" ht="25.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="123" ht="25.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="124" ht="25.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="125" ht="25.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="126" ht="25.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="127" ht="25.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="128" ht="25.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="129" ht="25.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="130" ht="25.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="131" ht="25.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="132" ht="25.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="133" ht="25.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="134" ht="25.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="135" ht="25.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="136" ht="25.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="137" ht="25.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="138" ht="25.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="139" ht="25.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="140" ht="25.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="141" ht="25.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="142" ht="25.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="143" ht="25.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="144" ht="25.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="145" ht="25.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="146" ht="25.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="147" ht="25.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="148" ht="25.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="149" ht="25.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="150" ht="25.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="151" ht="25.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="152" ht="25.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="153" ht="25.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="154" ht="25.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="155" ht="25.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="156" ht="25.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="157" ht="25.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="158" ht="25.5" customHeight="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E31:J41"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F134"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="F68" sqref="F68"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.125" customWidth="1"/>
+    <col min="2" max="2" width="13.625" customWidth="1"/>
+    <col min="3" max="3" width="58.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" customWidth="1"/>
+    <col min="5" max="5" width="3.375" customWidth="1"/>
+    <col min="6" max="6" width="79.875" customWidth="1"/>
+    <col min="8" max="8" width="54.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" ht="31.5" x14ac:dyDescent="0.3">
+      <c r="B2" s="24" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="2:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="49" t="s">
+        <v>108</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="11"/>
+    </row>
+    <row r="15" spans="2:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="27"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="13"/>
+    </row>
+    <row r="16" spans="2:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="16"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="13"/>
+    </row>
+    <row r="17" spans="2:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="16"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="13"/>
+    </row>
+    <row r="18" spans="2:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="16"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="13"/>
+    </row>
+    <row r="19" spans="2:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="16"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="13"/>
+    </row>
+    <row r="20" spans="2:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="16"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="13"/>
+    </row>
+    <row r="21" spans="2:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="16"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="13"/>
+    </row>
+    <row r="22" spans="2:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="16"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="13"/>
+    </row>
+    <row r="23" spans="2:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="16"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="13"/>
+    </row>
+    <row r="24" spans="2:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="17"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="19"/>
+    </row>
+    <row r="27" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="28" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B29" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B30" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D30" s="3"/>
+    </row>
+    <row r="31" spans="2:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="25"/>
+      <c r="C31" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D31" s="13"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="11" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="27"/>
+      <c r="C32" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="D32" s="13"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="13" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="29"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="13" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="16"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="13"/>
+    </row>
+    <row r="35" spans="2:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="16"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="13"/>
+    </row>
+    <row r="36" spans="2:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="16"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="13"/>
+    </row>
+    <row r="37" spans="2:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="16"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="13"/>
+    </row>
+    <row r="38" spans="2:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="16"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="13"/>
+    </row>
+    <row r="39" spans="2:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="16"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="13"/>
+    </row>
+    <row r="40" spans="2:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="16"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="13"/>
+    </row>
+    <row r="41" spans="2:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="17"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="19"/>
+    </row>
+    <row r="42" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="20"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="31"/>
+    </row>
+    <row r="43" spans="2:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D44" s="3"/>
+    </row>
+    <row r="45" spans="2:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="25"/>
+      <c r="C45" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D45" s="13"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="11" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="27"/>
+      <c r="C46" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="D46" s="13"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="13"/>
+    </row>
+    <row r="47" spans="2:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="39"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="13"/>
+    </row>
+    <row r="48" spans="2:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="16"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="13"/>
+    </row>
+    <row r="49" spans="2:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="16"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="13"/>
+    </row>
+    <row r="50" spans="2:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="16"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="13"/>
+    </row>
+    <row r="51" spans="2:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="16"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="13"/>
+    </row>
+    <row r="52" spans="2:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="16"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="13"/>
+    </row>
+    <row r="53" spans="2:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="16"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="13"/>
+    </row>
+    <row r="54" spans="2:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="16"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="13"/>
+    </row>
+    <row r="55" spans="2:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="17"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="19"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="19"/>
+    </row>
+    <row r="56" spans="2:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="9"/>
+      <c r="C56" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="D56" s="11"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="16"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="16"/>
+      <c r="F57" s="13"/>
+    </row>
+    <row r="58" spans="2:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="16"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="13"/>
+    </row>
+    <row r="59" spans="2:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="16"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="16"/>
+      <c r="F59" s="13"/>
+    </row>
+    <row r="60" spans="2:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="16"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="16"/>
+      <c r="F60" s="13"/>
+    </row>
+    <row r="61" spans="2:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="16"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="16"/>
+      <c r="F61" s="13"/>
+    </row>
+    <row r="62" spans="2:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="16"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="16"/>
+      <c r="F62" s="13"/>
+    </row>
+    <row r="63" spans="2:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="16"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="16"/>
+      <c r="F63" s="13"/>
+    </row>
+    <row r="64" spans="2:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="16"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="13"/>
+      <c r="E64" s="16"/>
+      <c r="F64" s="13"/>
+    </row>
+    <row r="65" spans="2:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="16"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="13"/>
+      <c r="E65" s="16"/>
+      <c r="F65" s="13"/>
+    </row>
+    <row r="66" spans="2:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="17"/>
+      <c r="C66" s="18"/>
+      <c r="D66" s="19"/>
+      <c r="E66" s="17"/>
+      <c r="F66" s="19"/>
+    </row>
+    <row r="67" spans="2:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="68" spans="2:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D69" s="3"/>
+    </row>
+    <row r="70" spans="2:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="25"/>
+      <c r="C70" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D70" s="13"/>
+    </row>
+    <row r="71" spans="2:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="27"/>
+      <c r="C71" s="21"/>
+      <c r="D71" s="13"/>
+    </row>
+    <row r="72" spans="2:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="39"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="13"/>
+    </row>
+    <row r="73" spans="2:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="16"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="13"/>
+    </row>
+    <row r="74" spans="2:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="16"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="13"/>
+    </row>
+    <row r="75" spans="2:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="16"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="13"/>
+    </row>
+    <row r="76" spans="2:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="16"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="13"/>
+    </row>
+    <row r="77" spans="2:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="16"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="13"/>
+    </row>
+    <row r="78" spans="2:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="16"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="13"/>
+    </row>
+    <row r="79" spans="2:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="16"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="13"/>
+    </row>
+    <row r="80" spans="2:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="17"/>
+      <c r="C80" s="18"/>
+      <c r="D80" s="19"/>
+    </row>
+    <row r="81" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="82" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="83" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="84" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="85" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="86" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="87" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="88" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="89" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="90" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="91" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="92" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="93" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="94" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="95" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="96" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="97" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="98" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="99" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="100" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="101" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="102" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="103" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="104" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="105" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="106" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="107" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="108" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="109" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="110" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="111" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="112" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="113" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="114" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="115" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="116" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="117" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="118" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="119" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="120" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="121" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="122" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="123" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="124" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="125" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="126" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="127" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="128" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="129" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="130" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="131" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="132" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="133" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="134" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Document/조작 시스템 문서_강동민.xlsx
+++ b/Document/조작 시스템 문서_강동민.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="176">
   <si>
     <t xml:space="preserve">작성날짜 </t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -736,6 +736,22 @@
   </si>
   <si>
     <t>뒤로 이동 상태에서는 오브젝트와 상호작용 불가</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>점프</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터가 앞으로 이동할때 점프 가능 처리</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터를 앞으로 이동시키자마자 점프하면 점프가 불가능 한 부분을</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>점프 가능하도록 처리</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1216,6 +1232,9 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1242,9 +1261,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -8016,6 +8032,274 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1847850</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2514600</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="직사각형 37"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3505200" y="25117425"/>
+          <a:ext cx="666750" cy="1171575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1619251</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1628775</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="직선 화살표 연결선 38"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3276601" y="24298275"/>
+          <a:ext cx="9524" cy="1123950"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1447800</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="직선 화살표 연결선 39"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2000250" y="26184225"/>
+          <a:ext cx="1104900" cy="19051"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1533525</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2657476</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>121003</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="직사각형 40"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3190875" y="24507825"/>
+          <a:ext cx="1123951" cy="368653"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1800"/>
+            <a:t>SPACE</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1476376</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>168628</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="직사각형 41"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2009775" y="25812750"/>
+          <a:ext cx="1123951" cy="368653"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1800"/>
+            <a:t>W</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -9480,7 +9764,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L158"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B94" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B31" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D111" sqref="D111"/>
     </sheetView>
   </sheetViews>
@@ -9710,12 +9994,12 @@
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="13"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="41"/>
-      <c r="I31" s="41"/>
-      <c r="J31" s="42"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="42"/>
+      <c r="I31" s="42"/>
+      <c r="J31" s="43"/>
       <c r="L31" s="4" t="s">
         <v>134</v>
       </c>
@@ -9726,120 +10010,120 @@
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="13"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="44"/>
-      <c r="H32" s="44"/>
-      <c r="I32" s="44"/>
-      <c r="J32" s="45"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="45"/>
+      <c r="I32" s="45"/>
+      <c r="J32" s="46"/>
       <c r="L32" s="35"/>
     </row>
     <row r="33" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="29"/>
       <c r="C33" s="5"/>
       <c r="D33" s="13"/>
-      <c r="E33" s="43"/>
-      <c r="F33" s="44"/>
-      <c r="G33" s="44"/>
-      <c r="H33" s="44"/>
-      <c r="I33" s="44"/>
-      <c r="J33" s="45"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="45"/>
+      <c r="I33" s="45"/>
+      <c r="J33" s="46"/>
       <c r="L33" s="35"/>
     </row>
     <row r="34" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="16"/>
       <c r="C34" s="5"/>
       <c r="D34" s="13"/>
-      <c r="E34" s="43"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="44"/>
-      <c r="H34" s="44"/>
-      <c r="I34" s="44"/>
-      <c r="J34" s="45"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="45"/>
+      <c r="I34" s="45"/>
+      <c r="J34" s="46"/>
       <c r="L34" s="35"/>
     </row>
     <row r="35" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="16"/>
       <c r="C35" s="5"/>
       <c r="D35" s="13"/>
-      <c r="E35" s="43"/>
-      <c r="F35" s="44"/>
-      <c r="G35" s="44"/>
-      <c r="H35" s="44"/>
-      <c r="I35" s="44"/>
-      <c r="J35" s="45"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="45"/>
+      <c r="I35" s="45"/>
+      <c r="J35" s="46"/>
       <c r="L35" s="35"/>
     </row>
     <row r="36" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="16"/>
       <c r="C36" s="5"/>
       <c r="D36" s="13"/>
-      <c r="E36" s="43"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="44"/>
-      <c r="H36" s="44"/>
-      <c r="I36" s="44"/>
-      <c r="J36" s="45"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="45"/>
+      <c r="G36" s="45"/>
+      <c r="H36" s="45"/>
+      <c r="I36" s="45"/>
+      <c r="J36" s="46"/>
       <c r="L36" s="35"/>
     </row>
     <row r="37" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="16"/>
       <c r="C37" s="5"/>
       <c r="D37" s="13"/>
-      <c r="E37" s="43"/>
-      <c r="F37" s="44"/>
-      <c r="G37" s="44"/>
-      <c r="H37" s="44"/>
-      <c r="I37" s="44"/>
-      <c r="J37" s="45"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="45"/>
+      <c r="G37" s="45"/>
+      <c r="H37" s="45"/>
+      <c r="I37" s="45"/>
+      <c r="J37" s="46"/>
       <c r="L37" s="35"/>
     </row>
     <row r="38" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="16"/>
       <c r="C38" s="5"/>
       <c r="D38" s="13"/>
-      <c r="E38" s="43"/>
-      <c r="F38" s="44"/>
-      <c r="G38" s="44"/>
-      <c r="H38" s="44"/>
-      <c r="I38" s="44"/>
-      <c r="J38" s="45"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="45"/>
+      <c r="G38" s="45"/>
+      <c r="H38" s="45"/>
+      <c r="I38" s="45"/>
+      <c r="J38" s="46"/>
       <c r="L38" s="35"/>
     </row>
     <row r="39" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="16"/>
       <c r="C39" s="5"/>
       <c r="D39" s="13"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="44"/>
-      <c r="G39" s="44"/>
-      <c r="H39" s="44"/>
-      <c r="I39" s="44"/>
-      <c r="J39" s="45"/>
+      <c r="E39" s="44"/>
+      <c r="F39" s="45"/>
+      <c r="G39" s="45"/>
+      <c r="H39" s="45"/>
+      <c r="I39" s="45"/>
+      <c r="J39" s="46"/>
       <c r="L39" s="35"/>
     </row>
     <row r="40" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="16"/>
       <c r="C40" s="5"/>
       <c r="D40" s="13"/>
-      <c r="E40" s="43"/>
-      <c r="F40" s="44"/>
-      <c r="G40" s="44"/>
-      <c r="H40" s="44"/>
-      <c r="I40" s="44"/>
-      <c r="J40" s="45"/>
+      <c r="E40" s="44"/>
+      <c r="F40" s="45"/>
+      <c r="G40" s="45"/>
+      <c r="H40" s="45"/>
+      <c r="I40" s="45"/>
+      <c r="J40" s="46"/>
       <c r="L40" s="35"/>
     </row>
     <row r="41" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="17"/>
       <c r="C41" s="18"/>
       <c r="D41" s="19"/>
-      <c r="E41" s="46"/>
-      <c r="F41" s="47"/>
-      <c r="G41" s="47"/>
-      <c r="H41" s="47"/>
-      <c r="I41" s="47"/>
-      <c r="J41" s="48"/>
+      <c r="E41" s="47"/>
+      <c r="F41" s="48"/>
+      <c r="G41" s="48"/>
+      <c r="H41" s="48"/>
+      <c r="I41" s="48"/>
+      <c r="J41" s="49"/>
       <c r="L41" s="36"/>
     </row>
     <row r="42" spans="2:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -10170,7 +10454,7 @@
     </row>
     <row r="82" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="83" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="49" t="s">
+      <c r="B83" s="40" t="s">
         <v>108</v>
       </c>
       <c r="C83" s="10" t="s">
@@ -10291,7 +10575,7 @@
     </row>
     <row r="94" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="95" spans="2:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="49" t="s">
+      <c r="B95" s="40" t="s">
         <v>108</v>
       </c>
       <c r="C95" s="10" t="s">
@@ -10423,8 +10707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F134"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="F68" sqref="F68"/>
+    <sheetView showGridLines="0" topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="F92" sqref="F92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10490,7 +10774,7 @@
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="2:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="49" t="s">
+      <c r="B14" s="40" t="s">
         <v>108</v>
       </c>
       <c r="C14" s="10"/>
@@ -10925,22 +11209,88 @@
       <c r="C80" s="18"/>
       <c r="D80" s="19"/>
     </row>
-    <row r="81" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="82" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="83" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="84" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="85" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="86" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="87" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="88" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="89" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="90" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="91" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="92" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="93" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="94" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="95" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="96" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="81" spans="2:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="82" spans="2:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B82" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D82" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D83" s="3"/>
+    </row>
+    <row r="84" spans="2:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B84" s="25"/>
+      <c r="C84" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D84" s="13"/>
+    </row>
+    <row r="85" spans="2:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B85" s="27"/>
+      <c r="C85" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="D85" s="13"/>
+    </row>
+    <row r="86" spans="2:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="39"/>
+      <c r="C86" s="5"/>
+      <c r="D86" s="13"/>
+    </row>
+    <row r="87" spans="2:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B87" s="16"/>
+      <c r="C87" s="5"/>
+      <c r="D87" s="13"/>
+    </row>
+    <row r="88" spans="2:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B88" s="16"/>
+      <c r="C88" s="5"/>
+      <c r="D88" s="13"/>
+    </row>
+    <row r="89" spans="2:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B89" s="16"/>
+      <c r="C89" s="5"/>
+      <c r="D89" s="13"/>
+    </row>
+    <row r="90" spans="2:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B90" s="16"/>
+      <c r="C90" s="5"/>
+      <c r="D90" s="13"/>
+    </row>
+    <row r="91" spans="2:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B91" s="16"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="13"/>
+    </row>
+    <row r="92" spans="2:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B92" s="16"/>
+      <c r="C92" s="5"/>
+      <c r="D92" s="13"/>
+    </row>
+    <row r="93" spans="2:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B93" s="16"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="13"/>
+    </row>
+    <row r="94" spans="2:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B94" s="17"/>
+      <c r="C94" s="18"/>
+      <c r="D94" s="19"/>
+    </row>
+    <row r="95" spans="2:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="96" spans="2:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="97" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="98" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="99" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
